--- a/Tabellen/Rooms CN5.xlsx
+++ b/Tabellen/Rooms CN5.xlsx
@@ -910,6 +910,7 @@
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1015,12 +1016,8 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-    </dxf>
+    <dxf/>
+    <dxf/>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1063,7 +1060,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFF4C7C3"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF72BF44"/>
@@ -1076,7 +1073,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC53929"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1121,7 +1118,7 @@
       </c>
       <c r="C2" s="0" t="str">
         <f aca="false">MID(A2,3,20)</f>
-        <v> a bathroom</v>
+        <v>a bathroom</v>
       </c>
       <c r="D2" s="0" t="e">
         <f aca="false">SEARCH("(n)",C2)</f>
@@ -1129,11 +1126,11 @@
       </c>
       <c r="E2" s="0" t="str">
         <f aca="false">C2</f>
-        <v> a bathroom</v>
+        <v>a bathroom</v>
       </c>
       <c r="F2" s="1" t="str">
         <f aca="false">IFERROR(E2,C2)</f>
-        <v> a bathroom</v>
+        <v>a bathroom</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1151,7 +1148,7 @@
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">MID(A3,3,20)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="D3" s="0" t="e">
         <f aca="false">SEARCH("(n)",C3)</f>
@@ -1159,11 +1156,11 @@
       </c>
       <c r="E3" s="0" t="str">
         <f aca="false">C3</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="F3" s="1" t="str">
         <f aca="false">IFERROR(E3,C3)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>7</v>
@@ -1184,7 +1181,7 @@
       </c>
       <c r="C4" s="0" t="str">
         <f aca="false">MID(A4,3,20)</f>
-        <v> anechoic chamber (n</v>
+        <v>anechoic chamber (n</v>
       </c>
       <c r="D4" s="0" t="e">
         <f aca="false">SEARCH("(n)",C4)</f>
@@ -1216,7 +1213,7 @@
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">MID(A5,3,20)</f>
-        <v> anteroom (n)</v>
+        <v>anteroom (n)</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">SEARCH("(n)",C5)</f>
@@ -1224,11 +1221,11 @@
       </c>
       <c r="E5" s="0" t="str">
         <f aca="false">MID(C5,1,D5-1)</f>
-        <v> anteroom </v>
+        <v>anteroom</v>
       </c>
       <c r="F5" s="1" t="str">
         <f aca="false">IFERROR(E5,C5)</f>
-        <v> anteroom </v>
+        <v>anteroom</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
@@ -1249,7 +1246,7 @@
       </c>
       <c r="C6" s="0" t="str">
         <f aca="false">MID(A6,3,20)</f>
-        <v> back room (n)</v>
+        <v>back room (n)</v>
       </c>
       <c r="D6" s="0" t="n">
         <f aca="false">SEARCH("(n)",C6)</f>
@@ -1257,11 +1254,11 @@
       </c>
       <c r="E6" s="0" t="str">
         <f aca="false">MID(C6,1,D6-1)</f>
-        <v> back room </v>
+        <v>back room</v>
       </c>
       <c r="F6" s="1" t="str">
         <f aca="false">IFERROR(E6,C6)</f>
-        <v> back room </v>
+        <v>back room</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -1282,7 +1279,7 @@
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">MID(A7,3,20)</f>
-        <v> barroom (n)</v>
+        <v>barroom (n)</v>
       </c>
       <c r="D7" s="0" t="n">
         <f aca="false">SEARCH("(n)",C7)</f>
@@ -1290,11 +1287,11 @@
       </c>
       <c r="E7" s="0" t="str">
         <f aca="false">MID(C7,1,D7-1)</f>
-        <v> barroom </v>
+        <v>barroom</v>
       </c>
       <c r="F7" s="1" t="str">
         <f aca="false">IFERROR(E7,C7)</f>
-        <v> barroom </v>
+        <v>barroom</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
@@ -1315,7 +1312,7 @@
       </c>
       <c r="C8" s="0" t="str">
         <f aca="false">MID(A8,3,20)</f>
-        <v> bedroom (n)</v>
+        <v>bedroom (n)</v>
       </c>
       <c r="D8" s="0" t="n">
         <f aca="false">SEARCH("(n)",C8)</f>
@@ -1323,11 +1320,11 @@
       </c>
       <c r="E8" s="0" t="str">
         <f aca="false">MID(C8,1,D8-1)</f>
-        <v> bedroom </v>
+        <v>bedroom</v>
       </c>
       <c r="F8" s="1" t="str">
         <f aca="false">IFERROR(E8,C8)</f>
-        <v> bedroom </v>
+        <v>bedroom</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -1348,7 +1345,7 @@
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">MID(A9,3,20)</f>
-        <v> belfry (n)</v>
+        <v>belfry (n)</v>
       </c>
       <c r="D9" s="0" t="n">
         <f aca="false">SEARCH("(n)",C9)</f>
@@ -1356,11 +1353,11 @@
       </c>
       <c r="E9" s="0" t="str">
         <f aca="false">MID(C9,1,D9-1)</f>
-        <v> belfry </v>
+        <v>belfry</v>
       </c>
       <c r="F9" s="1" t="str">
         <f aca="false">IFERROR(E9,C9)</f>
-        <v> belfry </v>
+        <v>belfry</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -1381,7 +1378,7 @@
       </c>
       <c r="C10" s="0" t="str">
         <f aca="false">MID(A10,3,20)</f>
-        <v> billiard room (n)</v>
+        <v>billiard room (n)</v>
       </c>
       <c r="D10" s="0" t="n">
         <f aca="false">SEARCH("(n)",C10)</f>
@@ -1389,11 +1386,11 @@
       </c>
       <c r="E10" s="0" t="str">
         <f aca="false">MID(C10,1,D10-1)</f>
-        <v> billiard room </v>
+        <v>billiard room</v>
       </c>
       <c r="F10" s="1" t="str">
         <f aca="false">IFERROR(E10,C10)</f>
-        <v> billiard room </v>
+        <v>billiard room</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>28</v>
@@ -1414,7 +1411,7 @@
       </c>
       <c r="C11" s="0" t="str">
         <f aca="false">MID(A11,3,20)</f>
-        <v> boardroom (n)</v>
+        <v>boardroom (n)</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">SEARCH("(n)",C11)</f>
@@ -1422,11 +1419,11 @@
       </c>
       <c r="E11" s="0" t="str">
         <f aca="false">MID(C11,1,D11-1)</f>
-        <v> boardroom </v>
+        <v>boardroom</v>
       </c>
       <c r="F11" s="1" t="str">
         <f aca="false">IFERROR(E11,C11)</f>
-        <v> boardroom </v>
+        <v>boardroom</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>31</v>
@@ -1447,7 +1444,7 @@
       </c>
       <c r="C12" s="0" t="str">
         <f aca="false">MID(A12,3,20)</f>
-        <v> breathing room (n)</v>
+        <v>breathing room (n)</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">SEARCH("(n)",C12)</f>
@@ -1455,11 +1452,11 @@
       </c>
       <c r="E12" s="0" t="str">
         <f aca="false">MID(C12,1,D12-1)</f>
-        <v> breathing room </v>
+        <v>breathing room</v>
       </c>
       <c r="F12" s="1" t="str">
         <f aca="false">IFERROR(E12,C12)</f>
-        <v> breathing room </v>
+        <v>breathing room</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>34</v>
@@ -1478,7 +1475,7 @@
       </c>
       <c r="C13" s="0" t="str">
         <f aca="false">MID(A13,3,20)</f>
-        <v> cardroom (n)</v>
+        <v>cardroom (n)</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">SEARCH("(n)",C13)</f>
@@ -1486,11 +1483,11 @@
       </c>
       <c r="E13" s="0" t="str">
         <f aca="false">MID(C13,1,D13-1)</f>
-        <v> cardroom </v>
+        <v>cardroom</v>
       </c>
       <c r="F13" s="1" t="str">
         <f aca="false">IFERROR(E13,C13)</f>
-        <v> cardroom </v>
+        <v>cardroom</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>36</v>
@@ -1509,7 +1506,7 @@
       </c>
       <c r="C14" s="0" t="str">
         <f aca="false">MID(A14,3,20)</f>
-        <v> cell (n)</v>
+        <v>cell (n)</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">SEARCH("(n)",C14)</f>
@@ -1517,11 +1514,11 @@
       </c>
       <c r="E14" s="0" t="str">
         <f aca="false">MID(C14,1,D14-1)</f>
-        <v> cell </v>
+        <v>cell</v>
       </c>
       <c r="F14" s="1" t="str">
         <f aca="false">IFERROR(E14,C14)</f>
-        <v> cell </v>
+        <v>cell</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>38</v>
@@ -1540,7 +1537,7 @@
       </c>
       <c r="C15" s="0" t="str">
         <f aca="false">MID(A15,3,20)</f>
-        <v> checkroom (n)</v>
+        <v>checkroom (n)</v>
       </c>
       <c r="D15" s="0" t="n">
         <f aca="false">SEARCH("(n)",C15)</f>
@@ -1548,11 +1545,11 @@
       </c>
       <c r="E15" s="0" t="str">
         <f aca="false">MID(C15,1,D15-1)</f>
-        <v> checkroom </v>
+        <v>checkroom</v>
       </c>
       <c r="F15" s="1" t="str">
         <f aca="false">IFERROR(E15,C15)</f>
-        <v> checkroom </v>
+        <v>checkroom</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>40</v>
@@ -1571,7 +1568,7 @@
       </c>
       <c r="C16" s="0" t="str">
         <f aca="false">MID(A16,3,20)</f>
-        <v> clean room (n)</v>
+        <v>clean room (n)</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">SEARCH("(n)",C16)</f>
@@ -1579,11 +1576,11 @@
       </c>
       <c r="E16" s="0" t="str">
         <f aca="false">MID(C16,1,D16-1)</f>
-        <v> clean room </v>
+        <v>clean room</v>
       </c>
       <c r="F16" s="1" t="str">
         <f aca="false">IFERROR(E16,C16)</f>
-        <v> clean room </v>
+        <v>clean room</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>42</v>
@@ -1602,7 +1599,7 @@
       </c>
       <c r="C17" s="0" t="str">
         <f aca="false">MID(A17,3,20)</f>
-        <v> cloakroom (n)</v>
+        <v>cloakroom (n)</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">SEARCH("(n)",C17)</f>
@@ -1610,11 +1607,11 @@
       </c>
       <c r="E17" s="0" t="str">
         <f aca="false">MID(C17,1,D17-1)</f>
-        <v> cloakroom </v>
+        <v>cloakroom</v>
       </c>
       <c r="F17" s="1" t="str">
         <f aca="false">IFERROR(E17,C17)</f>
-        <v> cloakroom </v>
+        <v>cloakroom</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>32</v>
@@ -1633,7 +1630,7 @@
       </c>
       <c r="C18" s="0" t="str">
         <f aca="false">MID(A18,3,20)</f>
-        <v> clubroom (n)</v>
+        <v>clubroom (n)</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">SEARCH("(n)",C18)</f>
@@ -1641,11 +1638,11 @@
       </c>
       <c r="E18" s="0" t="str">
         <f aca="false">MID(C18,1,D18-1)</f>
-        <v> clubroom </v>
+        <v>clubroom</v>
       </c>
       <c r="F18" s="1" t="str">
         <f aca="false">IFERROR(E18,C18)</f>
-        <v> clubroom </v>
+        <v>clubroom</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>45</v>
@@ -1664,7 +1661,7 @@
       </c>
       <c r="C19" s="0" t="str">
         <f aca="false">MID(A19,3,20)</f>
-        <v> compartment (n)</v>
+        <v>compartment (n)</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">SEARCH("(n)",C19)</f>
@@ -1672,11 +1669,11 @@
       </c>
       <c r="E19" s="0" t="str">
         <f aca="false">MID(C19,1,D19-1)</f>
-        <v> compartment </v>
+        <v>compartment</v>
       </c>
       <c r="F19" s="1" t="str">
         <f aca="false">IFERROR(E19,C19)</f>
-        <v> compartment </v>
+        <v>compartment</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>47</v>
@@ -1695,7 +1692,7 @@
       </c>
       <c r="C20" s="0" t="str">
         <f aca="false">MID(A20,3,20)</f>
-        <v> conference room (n)</v>
+        <v>conference room (n)</v>
       </c>
       <c r="D20" s="0" t="n">
         <f aca="false">SEARCH("(n)",C20)</f>
@@ -1703,11 +1700,11 @@
       </c>
       <c r="E20" s="0" t="str">
         <f aca="false">MID(C20,1,D20-1)</f>
-        <v> conference room </v>
+        <v>conference room</v>
       </c>
       <c r="F20" s="1" t="str">
         <f aca="false">IFERROR(E20,C20)</f>
-        <v> conference room </v>
+        <v>conference room</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>49</v>
@@ -1726,7 +1723,7 @@
       </c>
       <c r="C21" s="0" t="str">
         <f aca="false">MID(A21,3,20)</f>
-        <v> court (n)</v>
+        <v>court (n)</v>
       </c>
       <c r="D21" s="0" t="n">
         <f aca="false">SEARCH("(n)",C21)</f>
@@ -1734,11 +1731,11 @@
       </c>
       <c r="E21" s="0" t="str">
         <f aca="false">MID(C21,1,D21-1)</f>
-        <v> court </v>
+        <v>court</v>
       </c>
       <c r="F21" s="1" t="str">
         <f aca="false">IFERROR(E21,C21)</f>
-        <v> court </v>
+        <v>court</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>51</v>
@@ -1757,7 +1754,7 @@
       </c>
       <c r="C22" s="0" t="str">
         <f aca="false">MID(A22,3,20)</f>
-        <v> cubbyhole (n)</v>
+        <v>cubbyhole (n)</v>
       </c>
       <c r="D22" s="0" t="n">
         <f aca="false">SEARCH("(n)",C22)</f>
@@ -1765,11 +1762,11 @@
       </c>
       <c r="E22" s="0" t="str">
         <f aca="false">MID(C22,1,D22-1)</f>
-        <v> cubbyhole </v>
+        <v>cubbyhole</v>
       </c>
       <c r="F22" s="1" t="str">
         <f aca="false">IFERROR(E22,C22)</f>
-        <v> cubbyhole </v>
+        <v>cubbyhole</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>53</v>
@@ -1788,7 +1785,7 @@
       </c>
       <c r="C23" s="0" t="str">
         <f aca="false">MID(A23,3,20)</f>
-        <v> cutting room (n)</v>
+        <v>cutting room (n)</v>
       </c>
       <c r="D23" s="0" t="n">
         <f aca="false">SEARCH("(n)",C23)</f>
@@ -1796,11 +1793,11 @@
       </c>
       <c r="E23" s="0" t="str">
         <f aca="false">MID(C23,1,D23-1)</f>
-        <v> cutting room </v>
+        <v>cutting room</v>
       </c>
       <c r="F23" s="1" t="str">
         <f aca="false">IFERROR(E23,C23)</f>
-        <v> cutting room </v>
+        <v>cutting room</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>55</v>
@@ -1819,7 +1816,7 @@
       </c>
       <c r="C24" s="0" t="str">
         <f aca="false">MID(A24,3,20)</f>
-        <v> den (n)</v>
+        <v>den (n)</v>
       </c>
       <c r="D24" s="0" t="n">
         <f aca="false">SEARCH("(n)",C24)</f>
@@ -1827,11 +1824,11 @@
       </c>
       <c r="E24" s="0" t="str">
         <f aca="false">MID(C24,1,D24-1)</f>
-        <v> den </v>
+        <v>den</v>
       </c>
       <c r="F24" s="1" t="str">
         <f aca="false">IFERROR(E24,C24)</f>
-        <v> den </v>
+        <v>den</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>57</v>
@@ -1850,7 +1847,7 @@
       </c>
       <c r="C25" s="0" t="str">
         <f aca="false">MID(A25,3,20)</f>
-        <v> dinette (n)</v>
+        <v>dinette (n)</v>
       </c>
       <c r="D25" s="0" t="n">
         <f aca="false">SEARCH("(n)",C25)</f>
@@ -1858,11 +1855,11 @@
       </c>
       <c r="E25" s="0" t="str">
         <f aca="false">MID(C25,1,D25-1)</f>
-        <v> dinette </v>
+        <v>dinette</v>
       </c>
       <c r="F25" s="1" t="str">
         <f aca="false">IFERROR(E25,C25)</f>
-        <v> dinette </v>
+        <v>dinette</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>59</v>
@@ -1881,7 +1878,7 @@
       </c>
       <c r="C26" s="0" t="str">
         <f aca="false">MID(A26,3,20)</f>
-        <v> a "dining room"</v>
+        <v>a "dining room"</v>
       </c>
       <c r="D26" s="0" t="e">
         <f aca="false">SEARCH("(n)",C26)</f>
@@ -1893,7 +1890,7 @@
       </c>
       <c r="F26" s="1" t="str">
         <f aca="false">IFERROR(E26,C26)</f>
-        <v> a "dining room"</v>
+        <v>a "dining room"</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>61</v>
@@ -1912,7 +1909,7 @@
       </c>
       <c r="C27" s="0" t="str">
         <f aca="false">MID(A27,3,20)</f>
-        <v> door (n)</v>
+        <v>door (n)</v>
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">SEARCH("(n)",C27)</f>
@@ -1920,11 +1917,11 @@
       </c>
       <c r="E27" s="0" t="str">
         <f aca="false">MID(C27,1,D27-1)</f>
-        <v> door </v>
+        <v>door</v>
       </c>
       <c r="F27" s="1" t="str">
         <f aca="false">IFERROR(E27,C27)</f>
-        <v> door </v>
+        <v>door</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>63</v>
@@ -1943,7 +1940,7 @@
       </c>
       <c r="C28" s="0" t="str">
         <f aca="false">MID(A28,3,20)</f>
-        <v> durbar (n)</v>
+        <v>durbar (n)</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">SEARCH("(n)",C28)</f>
@@ -1951,11 +1948,11 @@
       </c>
       <c r="E28" s="0" t="str">
         <f aca="false">MID(C28,1,D28-1)</f>
-        <v> durbar </v>
+        <v>durbar</v>
       </c>
       <c r="F28" s="1" t="str">
         <f aca="false">IFERROR(E28,C28)</f>
-        <v> durbar </v>
+        <v>durbar</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>65</v>
@@ -1974,7 +1971,7 @@
       </c>
       <c r="C29" s="0" t="str">
         <f aca="false">MID(A29,3,20)</f>
-        <v> engineering (n)</v>
+        <v>engineering (n)</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">SEARCH("(n)",C29)</f>
@@ -1982,11 +1979,11 @@
       </c>
       <c r="E29" s="0" t="str">
         <f aca="false">MID(C29,1,D29-1)</f>
-        <v> engineering </v>
+        <v>engineering</v>
       </c>
       <c r="F29" s="1" t="str">
         <f aca="false">IFERROR(E29,C29)</f>
-        <v> engineering </v>
+        <v>engineering</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>67</v>
@@ -2005,7 +2002,7 @@
       </c>
       <c r="C30" s="0" t="str">
         <f aca="false">MID(A30,3,20)</f>
-        <v> floor (n)</v>
+        <v>floor (n)</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">SEARCH("(n)",C30)</f>
@@ -2013,11 +2010,11 @@
       </c>
       <c r="E30" s="0" t="str">
         <f aca="false">MID(C30,1,D30-1)</f>
-        <v> floor </v>
+        <v>floor</v>
       </c>
       <c r="F30" s="1" t="str">
         <f aca="false">IFERROR(E30,C30)</f>
-        <v> floor </v>
+        <v>floor</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>69</v>
@@ -2036,7 +2033,7 @@
       </c>
       <c r="C31" s="0" t="str">
         <f aca="false">MID(A31,3,20)</f>
-        <v> furnace room (n)</v>
+        <v>furnace room (n)</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">SEARCH("(n)",C31)</f>
@@ -2044,11 +2041,11 @@
       </c>
       <c r="E31" s="0" t="str">
         <f aca="false">MID(C31,1,D31-1)</f>
-        <v> furnace room </v>
+        <v>furnace room</v>
       </c>
       <c r="F31" s="1" t="str">
         <f aca="false">IFERROR(E31,C31)</f>
-        <v> furnace room </v>
+        <v>furnace room</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>71</v>
@@ -2067,7 +2064,7 @@
       </c>
       <c r="C32" s="0" t="str">
         <f aca="false">MID(A32,3,20)</f>
-        <v> gallery (n)</v>
+        <v>gallery (n)</v>
       </c>
       <c r="D32" s="0" t="n">
         <f aca="false">SEARCH("(n)",C32)</f>
@@ -2075,11 +2072,11 @@
       </c>
       <c r="E32" s="0" t="str">
         <f aca="false">MID(C32,1,D32-1)</f>
-        <v> gallery </v>
+        <v>gallery</v>
       </c>
       <c r="F32" s="1" t="str">
         <f aca="false">IFERROR(E32,C32)</f>
-        <v> gallery </v>
+        <v>gallery</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>73</v>
@@ -2098,7 +2095,7 @@
       </c>
       <c r="C33" s="0" t="str">
         <f aca="false">MID(A33,3,20)</f>
-        <v> greenroom (n)</v>
+        <v>greenroom (n)</v>
       </c>
       <c r="D33" s="0" t="n">
         <f aca="false">SEARCH("(n)",C33)</f>
@@ -2106,11 +2103,11 @@
       </c>
       <c r="E33" s="0" t="str">
         <f aca="false">MID(C33,1,D33-1)</f>
-        <v> greenroom </v>
+        <v>greenroom</v>
       </c>
       <c r="F33" s="1" t="str">
         <f aca="false">IFERROR(E33,C33)</f>
-        <v> greenroom </v>
+        <v>greenroom</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>75</v>
@@ -2129,7 +2126,7 @@
       </c>
       <c r="C34" s="0" t="str">
         <f aca="false">MID(A34,3,20)</f>
-        <v> guardroom (n)</v>
+        <v>guardroom (n)</v>
       </c>
       <c r="D34" s="0" t="n">
         <f aca="false">SEARCH("(n)",C34)</f>
@@ -2137,11 +2134,11 @@
       </c>
       <c r="E34" s="0" t="str">
         <f aca="false">MID(C34,1,D34-1)</f>
-        <v> guardroom </v>
+        <v>guardroom</v>
       </c>
       <c r="F34" s="1" t="str">
         <f aca="false">IFERROR(E34,C34)</f>
-        <v> guardroom </v>
+        <v>guardroom</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>77</v>
@@ -2160,7 +2157,7 @@
       </c>
       <c r="C35" s="0" t="str">
         <f aca="false">MID(A35,3,20)</f>
-        <v> A gymnasium</v>
+        <v>A gymnasium</v>
       </c>
       <c r="D35" s="0" t="e">
         <f aca="false">SEARCH("(n)",C35)</f>
@@ -2172,7 +2169,7 @@
       </c>
       <c r="F35" s="1" t="str">
         <f aca="false">IFERROR(E35,C35)</f>
-        <v> A gymnasium</v>
+        <v>A gymnasium</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>79</v>
@@ -2191,7 +2188,7 @@
       </c>
       <c r="C36" s="0" t="str">
         <f aca="false">MID(A36,3,20)</f>
-        <v> headroom (n)</v>
+        <v>headroom (n)</v>
       </c>
       <c r="D36" s="0" t="n">
         <f aca="false">SEARCH("(n)",C36)</f>
@@ -2199,11 +2196,11 @@
       </c>
       <c r="E36" s="0" t="str">
         <f aca="false">MID(C36,1,D36-1)</f>
-        <v> headroom </v>
+        <v>headroom</v>
       </c>
       <c r="F36" s="1" t="str">
         <f aca="false">IFERROR(E36,C36)</f>
-        <v> headroom </v>
+        <v>headroom</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>81</v>
@@ -2222,7 +2219,7 @@
       </c>
       <c r="C37" s="0" t="str">
         <f aca="false">MID(A37,3,20)</f>
-        <v> houseroom (n)</v>
+        <v>houseroom (n)</v>
       </c>
       <c r="D37" s="0" t="n">
         <f aca="false">SEARCH("(n)",C37)</f>
@@ -2230,11 +2227,11 @@
       </c>
       <c r="E37" s="0" t="str">
         <f aca="false">MID(C37,1,D37-1)</f>
-        <v> houseroom </v>
+        <v>houseroom</v>
       </c>
       <c r="F37" s="1" t="str">
         <f aca="false">IFERROR(E37,C37)</f>
-        <v> houseroom </v>
+        <v>houseroom</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>83</v>
@@ -2253,7 +2250,7 @@
       </c>
       <c r="C38" s="0" t="str">
         <f aca="false">MID(A38,3,20)</f>
-        <v> library (n)</v>
+        <v>library (n)</v>
       </c>
       <c r="D38" s="0" t="n">
         <f aca="false">SEARCH("(n)",C38)</f>
@@ -2261,11 +2258,11 @@
       </c>
       <c r="E38" s="0" t="str">
         <f aca="false">MID(C38,1,D38-1)</f>
-        <v> library </v>
+        <v>library</v>
       </c>
       <c r="F38" s="1" t="str">
         <f aca="false">IFERROR(E38,C38)</f>
-        <v> library </v>
+        <v>library</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>85</v>
@@ -2284,7 +2281,7 @@
       </c>
       <c r="C39" s="0" t="str">
         <f aca="false">MID(A39,3,20)</f>
-        <v> living space (n)</v>
+        <v>living space (n)</v>
       </c>
       <c r="D39" s="0" t="n">
         <f aca="false">SEARCH("(n)",C39)</f>
@@ -2292,11 +2289,11 @@
       </c>
       <c r="E39" s="0" t="str">
         <f aca="false">MID(C39,1,D39-1)</f>
-        <v> living space </v>
+        <v>living space</v>
       </c>
       <c r="F39" s="1" t="str">
         <f aca="false">IFERROR(E39,C39)</f>
-        <v> living space </v>
+        <v>living space</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>87</v>
@@ -2315,7 +2312,7 @@
       </c>
       <c r="C40" s="0" t="str">
         <f aca="false">MID(A40,3,20)</f>
-        <v> A locker room</v>
+        <v>A locker room</v>
       </c>
       <c r="D40" s="0" t="e">
         <f aca="false">SEARCH("(n)",C40)</f>
@@ -2327,7 +2324,7 @@
       </c>
       <c r="F40" s="1" t="str">
         <f aca="false">IFERROR(E40,C40)</f>
-        <v> A locker room</v>
+        <v>A locker room</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>89</v>
@@ -2346,7 +2343,7 @@
       </c>
       <c r="C41" s="0" t="str">
         <f aca="false">MID(A41,3,20)</f>
-        <v> lounge (n)</v>
+        <v>lounge (n)</v>
       </c>
       <c r="D41" s="0" t="n">
         <f aca="false">SEARCH("(n)",C41)</f>
@@ -2354,11 +2351,11 @@
       </c>
       <c r="E41" s="0" t="str">
         <f aca="false">MID(C41,1,D41-1)</f>
-        <v> lounge </v>
+        <v>lounge</v>
       </c>
       <c r="F41" s="1" t="str">
         <f aca="false">IFERROR(E41,C41)</f>
-        <v> lounge </v>
+        <v>lounge</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>91</v>
@@ -2377,7 +2374,7 @@
       </c>
       <c r="C42" s="0" t="str">
         <f aca="false">MID(A42,3,20)</f>
-        <v> manor hall (n)</v>
+        <v>manor hall (n)</v>
       </c>
       <c r="D42" s="0" t="n">
         <f aca="false">SEARCH("(n)",C42)</f>
@@ -2385,11 +2382,11 @@
       </c>
       <c r="E42" s="0" t="str">
         <f aca="false">MID(C42,1,D42-1)</f>
-        <v> manor hall </v>
+        <v>manor hall</v>
       </c>
       <c r="F42" s="1" t="str">
         <f aca="false">IFERROR(E42,C42)</f>
-        <v> manor hall </v>
+        <v>manor hall</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>93</v>
@@ -2408,7 +2405,7 @@
       </c>
       <c r="C43" s="0" t="str">
         <f aca="false">MID(A43,3,20)</f>
-        <v> parking (n)</v>
+        <v>parking (n)</v>
       </c>
       <c r="D43" s="0" t="n">
         <f aca="false">SEARCH("(n)",C43)</f>
@@ -2416,11 +2413,11 @@
       </c>
       <c r="E43" s="0" t="str">
         <f aca="false">MID(C43,1,D43-1)</f>
-        <v> parking </v>
+        <v>parking</v>
       </c>
       <c r="F43" s="1" t="str">
         <f aca="false">IFERROR(E43,C43)</f>
-        <v> parking </v>
+        <v>parking</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>95</v>
@@ -2439,7 +2436,7 @@
       </c>
       <c r="C44" s="0" t="str">
         <f aca="false">MID(A44,3,20)</f>
-        <v> poolroom (n)</v>
+        <v>poolroom (n)</v>
       </c>
       <c r="D44" s="0" t="n">
         <f aca="false">SEARCH("(n)",C44)</f>
@@ -2447,11 +2444,11 @@
       </c>
       <c r="E44" s="0" t="str">
         <f aca="false">MID(C44,1,D44-1)</f>
-        <v> poolroom </v>
+        <v>poolroom</v>
       </c>
       <c r="F44" s="1" t="str">
         <f aca="false">IFERROR(E44,C44)</f>
-        <v> poolroom </v>
+        <v>poolroom</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>97</v>
@@ -2470,7 +2467,7 @@
       </c>
       <c r="C45" s="0" t="str">
         <f aca="false">MID(A45,3,20)</f>
-        <v> presence chamber (n</v>
+        <v>presence chamber (n</v>
       </c>
       <c r="D45" s="0" t="e">
         <f aca="false">SEARCH("(n)",C45)</f>
@@ -2482,7 +2479,7 @@
       </c>
       <c r="F45" s="1" t="str">
         <f aca="false">IFERROR(E45,C45)</f>
-        <v> presence chamber (n</v>
+        <v>presence chamber (n</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>99</v>
@@ -2501,7 +2498,7 @@
       </c>
       <c r="C46" s="0" t="str">
         <f aca="false">MID(A46,3,20)</f>
-        <v> rathole (n)</v>
+        <v>rathole (n)</v>
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">SEARCH("(n)",C46)</f>
@@ -2509,11 +2506,11 @@
       </c>
       <c r="E46" s="0" t="str">
         <f aca="false">MID(C46,1,D46-1)</f>
-        <v> rathole </v>
+        <v>rathole</v>
       </c>
       <c r="F46" s="1" t="str">
         <f aca="false">IFERROR(E46,C46)</f>
-        <v> rathole </v>
+        <v>rathole</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>101</v>
@@ -2532,7 +2529,7 @@
       </c>
       <c r="C47" s="0" t="str">
         <f aca="false">MID(A47,3,20)</f>
-        <v> reading room (n)</v>
+        <v>reading room (n)</v>
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">SEARCH("(n)",C47)</f>
@@ -2540,11 +2537,11 @@
       </c>
       <c r="E47" s="0" t="str">
         <f aca="false">MID(C47,1,D47-1)</f>
-        <v> reading room </v>
+        <v>reading room</v>
       </c>
       <c r="F47" s="1" t="str">
         <f aca="false">IFERROR(E47,C47)</f>
-        <v> reading room </v>
+        <v>reading room</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>103</v>
@@ -2563,7 +2560,7 @@
       </c>
       <c r="C48" s="0" t="str">
         <f aca="false">MID(A48,3,20)</f>
-        <v> reception room (n)</v>
+        <v>reception room (n)</v>
       </c>
       <c r="D48" s="0" t="n">
         <f aca="false">SEARCH("(n)",C48)</f>
@@ -2571,11 +2568,11 @@
       </c>
       <c r="E48" s="0" t="str">
         <f aca="false">MID(C48,1,D48-1)</f>
-        <v> reception room </v>
+        <v>reception room</v>
       </c>
       <c r="F48" s="1" t="str">
         <f aca="false">IFERROR(E48,C48)</f>
-        <v> reception room </v>
+        <v>reception room</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>105</v>
@@ -2594,7 +2591,7 @@
       </c>
       <c r="C49" s="0" t="str">
         <f aca="false">MID(A49,3,20)</f>
-        <v> recreation room (n)</v>
+        <v>recreation room (n)</v>
       </c>
       <c r="D49" s="0" t="n">
         <f aca="false">SEARCH("(n)",C49)</f>
@@ -2602,11 +2599,11 @@
       </c>
       <c r="E49" s="0" t="str">
         <f aca="false">MID(C49,1,D49-1)</f>
-        <v> recreation room </v>
+        <v>recreation room</v>
       </c>
       <c r="F49" s="1" t="str">
         <f aca="false">IFERROR(E49,C49)</f>
-        <v> recreation room </v>
+        <v>recreation room</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>107</v>
@@ -2625,7 +2622,7 @@
       </c>
       <c r="C50" s="0" t="str">
         <f aca="false">MID(A50,3,20)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="D50" s="0" t="e">
         <f aca="false">SEARCH("(n)",C50)</f>
@@ -2637,7 +2634,7 @@
       </c>
       <c r="F50" s="1" t="str">
         <f aca="false">IFERROR(E50,C50)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>7</v>
@@ -2656,7 +2653,7 @@
       </c>
       <c r="C51" s="0" t="str">
         <f aca="false">MID(A51,3,20)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="D51" s="0" t="e">
         <f aca="false">SEARCH("(n)",C51)</f>
@@ -2668,7 +2665,7 @@
       </c>
       <c r="F51" s="1" t="str">
         <f aca="false">IFERROR(E51,C51)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>7</v>
@@ -2687,7 +2684,7 @@
       </c>
       <c r="C52" s="0" t="str">
         <f aca="false">MID(A52,3,20)</f>
-        <v> a room</v>
+        <v>a room</v>
       </c>
       <c r="D52" s="0" t="e">
         <f aca="false">SEARCH("(n)",C52)</f>
@@ -2699,7 +2696,7 @@
       </c>
       <c r="F52" s="1" t="str">
         <f aca="false">IFERROR(E52,C52)</f>
-        <v> a room</v>
+        <v>a room</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>109</v>
@@ -2718,7 +2715,7 @@
       </c>
       <c r="C53" s="0" t="str">
         <f aca="false">MID(A53,3,20)</f>
-        <v> room (n)</v>
+        <v>room (n)</v>
       </c>
       <c r="D53" s="0" t="n">
         <f aca="false">SEARCH("(n)",C53)</f>
@@ -2726,11 +2723,11 @@
       </c>
       <c r="E53" s="0" t="str">
         <f aca="false">MID(C53,1,D53-1)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="F53" s="1" t="str">
         <f aca="false">IFERROR(E53,C53)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>111</v>
@@ -2749,7 +2746,7 @@
       </c>
       <c r="C54" s="0" t="str">
         <f aca="false">MID(A54,3,20)</f>
-        <v> room (n)</v>
+        <v>room (n)</v>
       </c>
       <c r="D54" s="0" t="n">
         <f aca="false">SEARCH("(n)",C54)</f>
@@ -2757,11 +2754,11 @@
       </c>
       <c r="E54" s="0" t="str">
         <f aca="false">MID(C54,1,D54-1)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="F54" s="1" t="str">
         <f aca="false">IFERROR(E54,C54)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>111</v>
@@ -2780,7 +2777,7 @@
       </c>
       <c r="C55" s="0" t="str">
         <f aca="false">MID(A55,3,20)</f>
-        <v> room (n)</v>
+        <v>room (n)</v>
       </c>
       <c r="D55" s="0" t="n">
         <f aca="false">SEARCH("(n)",C55)</f>
@@ -2788,11 +2785,11 @@
       </c>
       <c r="E55" s="0" t="str">
         <f aca="false">MID(C55,1,D55-1)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="F55" s="1" t="str">
         <f aca="false">IFERROR(E55,C55)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>111</v>
@@ -2811,7 +2808,7 @@
       </c>
       <c r="C56" s="0" t="str">
         <f aca="false">MID(A56,3,20)</f>
-        <v> room (n)</v>
+        <v>room (n)</v>
       </c>
       <c r="D56" s="0" t="n">
         <f aca="false">SEARCH("(n)",C56)</f>
@@ -2819,11 +2816,11 @@
       </c>
       <c r="E56" s="0" t="str">
         <f aca="false">MID(C56,1,D56-1)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="F56" s="1" t="str">
         <f aca="false">IFERROR(E56,C56)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>111</v>
@@ -2842,7 +2839,7 @@
       </c>
       <c r="C57" s="0" t="str">
         <f aca="false">MID(A57,3,20)</f>
-        <v> rotunda (n)</v>
+        <v>rotunda (n)</v>
       </c>
       <c r="D57" s="0" t="n">
         <f aca="false">SEARCH("(n)",C57)</f>
@@ -2850,11 +2847,11 @@
       </c>
       <c r="E57" s="0" t="str">
         <f aca="false">MID(C57,1,D57-1)</f>
-        <v> rotunda </v>
+        <v>rotunda</v>
       </c>
       <c r="F57" s="1" t="str">
         <f aca="false">IFERROR(E57,C57)</f>
-        <v> rotunda </v>
+        <v>rotunda</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>113</v>
@@ -2873,7 +2870,7 @@
       </c>
       <c r="C58" s="0" t="str">
         <f aca="false">MID(A58,3,20)</f>
-        <v> scriptorium (n)</v>
+        <v>scriptorium (n)</v>
       </c>
       <c r="D58" s="0" t="n">
         <f aca="false">SEARCH("(n)",C58)</f>
@@ -2881,11 +2878,11 @@
       </c>
       <c r="E58" s="0" t="str">
         <f aca="false">MID(C58,1,D58-1)</f>
-        <v> scriptorium </v>
+        <v>scriptorium</v>
       </c>
       <c r="F58" s="1" t="str">
         <f aca="false">IFERROR(E58,C58)</f>
-        <v> scriptorium </v>
+        <v>scriptorium</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>115</v>
@@ -2904,7 +2901,7 @@
       </c>
       <c r="C59" s="0" t="str">
         <f aca="false">MID(A59,3,20)</f>
-        <v> scullery (n)</v>
+        <v>scullery (n)</v>
       </c>
       <c r="D59" s="0" t="n">
         <f aca="false">SEARCH("(n)",C59)</f>
@@ -2912,11 +2909,11 @@
       </c>
       <c r="E59" s="0" t="str">
         <f aca="false">MID(C59,1,D59-1)</f>
-        <v> scullery </v>
+        <v>scullery</v>
       </c>
       <c r="F59" s="1" t="str">
         <f aca="false">IFERROR(E59,C59)</f>
-        <v> scullery </v>
+        <v>scullery</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>117</v>
@@ -2935,7 +2932,7 @@
       </c>
       <c r="C60" s="0" t="str">
         <f aca="false">MID(A60,3,20)</f>
-        <v> sea room (n)</v>
+        <v>sea room (n)</v>
       </c>
       <c r="D60" s="0" t="n">
         <f aca="false">SEARCH("(n)",C60)</f>
@@ -2943,11 +2940,11 @@
       </c>
       <c r="E60" s="0" t="str">
         <f aca="false">MID(C60,1,D60-1)</f>
-        <v> sea room </v>
+        <v>sea room</v>
       </c>
       <c r="F60" s="1" t="str">
         <f aca="false">IFERROR(E60,C60)</f>
-        <v> sea room </v>
+        <v>sea room</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>119</v>
@@ -2966,7 +2963,7 @@
       </c>
       <c r="C61" s="0" t="str">
         <f aca="false">MID(A61,3,20)</f>
-        <v> seating (n)</v>
+        <v>seating (n)</v>
       </c>
       <c r="D61" s="0" t="n">
         <f aca="false">SEARCH("(n)",C61)</f>
@@ -2974,11 +2971,11 @@
       </c>
       <c r="E61" s="0" t="str">
         <f aca="false">MID(C61,1,D61-1)</f>
-        <v> seating </v>
+        <v>seating</v>
       </c>
       <c r="F61" s="1" t="str">
         <f aca="false">IFERROR(E61,C61)</f>
-        <v> seating </v>
+        <v>seating</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>121</v>
@@ -2997,7 +2994,7 @@
       </c>
       <c r="C62" s="0" t="str">
         <f aca="false">MID(A62,3,20)</f>
-        <v> sewing room (n)</v>
+        <v>sewing room (n)</v>
       </c>
       <c r="D62" s="0" t="n">
         <f aca="false">SEARCH("(n)",C62)</f>
@@ -3005,11 +3002,11 @@
       </c>
       <c r="E62" s="0" t="str">
         <f aca="false">MID(C62,1,D62-1)</f>
-        <v> sewing room </v>
+        <v>sewing room</v>
       </c>
       <c r="F62" s="1" t="str">
         <f aca="false">IFERROR(E62,C62)</f>
-        <v> sewing room </v>
+        <v>sewing room</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>123</v>
@@ -3028,7 +3025,7 @@
       </c>
       <c r="C63" s="0" t="str">
         <f aca="false">MID(A63,3,20)</f>
-        <v> shipping room (n)</v>
+        <v>shipping room (n)</v>
       </c>
       <c r="D63" s="0" t="n">
         <f aca="false">SEARCH("(n)",C63)</f>
@@ -3036,11 +3033,11 @@
       </c>
       <c r="E63" s="0" t="str">
         <f aca="false">MID(C63,1,D63-1)</f>
-        <v> shipping room </v>
+        <v>shipping room</v>
       </c>
       <c r="F63" s="1" t="str">
         <f aca="false">IFERROR(E63,C63)</f>
-        <v> shipping room </v>
+        <v>shipping room</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>125</v>
@@ -3059,7 +3056,7 @@
       </c>
       <c r="C64" s="0" t="str">
         <f aca="false">MID(A64,3,20)</f>
-        <v> shower room (n)</v>
+        <v>shower room (n)</v>
       </c>
       <c r="D64" s="0" t="n">
         <f aca="false">SEARCH("(n)",C64)</f>
@@ -3067,11 +3064,11 @@
       </c>
       <c r="E64" s="0" t="str">
         <f aca="false">MID(C64,1,D64-1)</f>
-        <v> shower room </v>
+        <v>shower room</v>
       </c>
       <c r="F64" s="1" t="str">
         <f aca="false">IFERROR(E64,C64)</f>
-        <v> shower room </v>
+        <v>shower room</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>127</v>
@@ -3090,7 +3087,7 @@
       </c>
       <c r="C65" s="0" t="str">
         <f aca="false">MID(A65,3,20)</f>
-        <v> sickbay (n)</v>
+        <v>sickbay (n)</v>
       </c>
       <c r="D65" s="0" t="n">
         <f aca="false">SEARCH("(n)",C65)</f>
@@ -3098,11 +3095,11 @@
       </c>
       <c r="E65" s="0" t="str">
         <f aca="false">MID(C65,1,D65-1)</f>
-        <v> sickbay </v>
+        <v>sickbay</v>
       </c>
       <c r="F65" s="1" t="str">
         <f aca="false">IFERROR(E65,C65)</f>
-        <v> sickbay </v>
+        <v>sickbay</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>129</v>
@@ -3121,7 +3118,7 @@
       </c>
       <c r="C66" s="0" t="str">
         <f aca="false">MID(A66,3,20)</f>
-        <v> sickroom (n)</v>
+        <v>sickroom (n)</v>
       </c>
       <c r="D66" s="0" t="n">
         <f aca="false">SEARCH("(n)",C66)</f>
@@ -3129,11 +3126,11 @@
       </c>
       <c r="E66" s="0" t="str">
         <f aca="false">MID(C66,1,D66-1)</f>
-        <v> sickroom </v>
+        <v>sickroom</v>
       </c>
       <c r="F66" s="1" t="str">
         <f aca="false">IFERROR(E66,C66)</f>
-        <v> sickroom </v>
+        <v>sickroom</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>131</v>
@@ -3152,7 +3149,7 @@
       </c>
       <c r="C67" s="0" t="str">
         <f aca="false">MID(A67,3,20)</f>
-        <v> smoking room (n)</v>
+        <v>smoking room (n)</v>
       </c>
       <c r="D67" s="0" t="n">
         <f aca="false">SEARCH("(n)",C67)</f>
@@ -3160,11 +3157,11 @@
       </c>
       <c r="E67" s="0" t="str">
         <f aca="false">MID(C67,1,D67-1)</f>
-        <v> smoking room </v>
+        <v>smoking room</v>
       </c>
       <c r="F67" s="1" t="str">
         <f aca="false">IFERROR(E67,C67)</f>
-        <v> smoking room </v>
+        <v>smoking room</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>133</v>
@@ -3183,7 +3180,7 @@
       </c>
       <c r="C68" s="0" t="str">
         <f aca="false">MID(A68,3,20)</f>
-        <v> squad room (n)</v>
+        <v>squad room (n)</v>
       </c>
       <c r="D68" s="0" t="n">
         <f aca="false">SEARCH("(n)",C68)</f>
@@ -3191,11 +3188,11 @@
       </c>
       <c r="E68" s="0" t="str">
         <f aca="false">MID(C68,1,D68-1)</f>
-        <v> squad room </v>
+        <v>squad room</v>
       </c>
       <c r="F68" s="1" t="str">
         <f aca="false">IFERROR(E68,C68)</f>
-        <v> squad room </v>
+        <v>squad room</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>135</v>
@@ -3214,7 +3211,7 @@
       </c>
       <c r="C69" s="0" t="str">
         <f aca="false">MID(A69,3,20)</f>
-        <v> standing room (n)</v>
+        <v>standing room (n)</v>
       </c>
       <c r="D69" s="0" t="n">
         <f aca="false">SEARCH("(n)",C69)</f>
@@ -3222,11 +3219,11 @@
       </c>
       <c r="E69" s="0" t="str">
         <f aca="false">MID(C69,1,D69-1)</f>
-        <v> standing room </v>
+        <v>standing room</v>
       </c>
       <c r="F69" s="1" t="str">
         <f aca="false">IFERROR(E69,C69)</f>
-        <v> standing room </v>
+        <v>standing room</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>137</v>
@@ -3245,7 +3242,7 @@
       </c>
       <c r="C70" s="0" t="str">
         <f aca="false">MID(A70,3,20)</f>
-        <v> steam bath (n)</v>
+        <v>steam bath (n)</v>
       </c>
       <c r="D70" s="0" t="n">
         <f aca="false">SEARCH("(n)",C70)</f>
@@ -3253,11 +3250,11 @@
       </c>
       <c r="E70" s="0" t="str">
         <f aca="false">MID(C70,1,D70-1)</f>
-        <v> steam bath </v>
+        <v>steam bath</v>
       </c>
       <c r="F70" s="1" t="str">
         <f aca="false">IFERROR(E70,C70)</f>
-        <v> steam bath </v>
+        <v>steam bath</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>139</v>
@@ -3276,7 +3273,7 @@
       </c>
       <c r="C71" s="0" t="str">
         <f aca="false">MID(A71,3,20)</f>
-        <v> storeroom (n)</v>
+        <v>storeroom (n)</v>
       </c>
       <c r="D71" s="0" t="n">
         <f aca="false">SEARCH("(n)",C71)</f>
@@ -3284,11 +3281,11 @@
       </c>
       <c r="E71" s="0" t="str">
         <f aca="false">MID(C71,1,D71-1)</f>
-        <v> storeroom </v>
+        <v>storeroom</v>
       </c>
       <c r="F71" s="1" t="str">
         <f aca="false">IFERROR(E71,C71)</f>
-        <v> storeroom </v>
+        <v>storeroom</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>141</v>
@@ -3307,7 +3304,7 @@
       </c>
       <c r="C72" s="0" t="str">
         <f aca="false">MID(A72,3,20)</f>
-        <v> sun parlor (n)</v>
+        <v>sun parlor (n)</v>
       </c>
       <c r="D72" s="0" t="n">
         <f aca="false">SEARCH("(n)",C72)</f>
@@ -3315,11 +3312,11 @@
       </c>
       <c r="E72" s="0" t="str">
         <f aca="false">MID(C72,1,D72-1)</f>
-        <v> sun parlor </v>
+        <v>sun parlor</v>
       </c>
       <c r="F72" s="1" t="str">
         <f aca="false">IFERROR(E72,C72)</f>
-        <v> sun parlor </v>
+        <v>sun parlor</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>143</v>
@@ -3338,7 +3335,7 @@
       </c>
       <c r="C73" s="0" t="str">
         <f aca="false">MID(A73,3,20)</f>
-        <v> surgery (n)</v>
+        <v>surgery (n)</v>
       </c>
       <c r="D73" s="0" t="n">
         <f aca="false">SEARCH("(n)",C73)</f>
@@ -3346,11 +3343,11 @@
       </c>
       <c r="E73" s="0" t="str">
         <f aca="false">MID(C73,1,D73-1)</f>
-        <v> surgery </v>
+        <v>surgery</v>
       </c>
       <c r="F73" s="1" t="str">
         <f aca="false">IFERROR(E73,C73)</f>
-        <v> surgery </v>
+        <v>surgery</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>145</v>
@@ -3369,7 +3366,7 @@
       </c>
       <c r="C74" s="0" t="str">
         <f aca="false">MID(A74,3,20)</f>
-        <v> television room (n)</v>
+        <v>television room (n)</v>
       </c>
       <c r="D74" s="0" t="n">
         <f aca="false">SEARCH("(n)",C74)</f>
@@ -3377,11 +3374,11 @@
       </c>
       <c r="E74" s="0" t="str">
         <f aca="false">MID(C74,1,D74-1)</f>
-        <v> television room </v>
+        <v>television room</v>
       </c>
       <c r="F74" s="1" t="str">
         <f aca="false">IFERROR(E74,C74)</f>
-        <v> television room </v>
+        <v>television room</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>147</v>
@@ -3400,7 +3397,7 @@
       </c>
       <c r="C75" s="0" t="str">
         <f aca="false">MID(A75,3,20)</f>
-        <v> test room (n)</v>
+        <v>test room (n)</v>
       </c>
       <c r="D75" s="0" t="n">
         <f aca="false">SEARCH("(n)",C75)</f>
@@ -3408,11 +3405,11 @@
       </c>
       <c r="E75" s="0" t="str">
         <f aca="false">MID(C75,1,D75-1)</f>
-        <v> test room </v>
+        <v>test room</v>
       </c>
       <c r="F75" s="1" t="str">
         <f aca="false">IFERROR(E75,C75)</f>
-        <v> test room </v>
+        <v>test room</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>149</v>
@@ -3431,7 +3428,7 @@
       </c>
       <c r="C76" s="0" t="str">
         <f aca="false">MID(A76,3,20)</f>
-        <v> toilet (n)</v>
+        <v>toilet (n)</v>
       </c>
       <c r="D76" s="0" t="n">
         <f aca="false">SEARCH("(n)",C76)</f>
@@ -3439,11 +3436,11 @@
       </c>
       <c r="E76" s="0" t="str">
         <f aca="false">MID(C76,1,D76-1)</f>
-        <v> toilet </v>
+        <v>toilet</v>
       </c>
       <c r="F76" s="1" t="str">
         <f aca="false">IFERROR(E76,C76)</f>
-        <v> toilet </v>
+        <v>toilet</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>151</v>
@@ -3462,7 +3459,7 @@
       </c>
       <c r="C77" s="0" t="str">
         <f aca="false">MID(A77,3,20)</f>
-        <v> torture chamber (n)</v>
+        <v>torture chamber (n)</v>
       </c>
       <c r="D77" s="0" t="n">
         <f aca="false">SEARCH("(n)",C77)</f>
@@ -3470,11 +3467,11 @@
       </c>
       <c r="E77" s="0" t="str">
         <f aca="false">MID(C77,1,D77-1)</f>
-        <v> torture chamber </v>
+        <v>torture chamber</v>
       </c>
       <c r="F77" s="1" t="str">
         <f aca="false">IFERROR(E77,C77)</f>
-        <v> torture chamber </v>
+        <v>torture chamber</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>153</v>
@@ -3493,7 +3490,7 @@
       </c>
       <c r="C78" s="0" t="str">
         <f aca="false">MID(A78,3,20)</f>
-        <v> vestry (n)</v>
+        <v>vestry (n)</v>
       </c>
       <c r="D78" s="0" t="n">
         <f aca="false">SEARCH("(n)",C78)</f>
@@ -3501,11 +3498,11 @@
       </c>
       <c r="E78" s="0" t="str">
         <f aca="false">MID(C78,1,D78-1)</f>
-        <v> vestry </v>
+        <v>vestry</v>
       </c>
       <c r="F78" s="1" t="str">
         <f aca="false">IFERROR(E78,C78)</f>
-        <v> vestry </v>
+        <v>vestry</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>155</v>
@@ -3524,7 +3521,7 @@
       </c>
       <c r="C79" s="0" t="str">
         <f aca="false">MID(A79,3,20)</f>
-        <v> walk-in (n)</v>
+        <v>walk-in (n)</v>
       </c>
       <c r="D79" s="0" t="n">
         <f aca="false">SEARCH("(n)",C79)</f>
@@ -3532,11 +3529,11 @@
       </c>
       <c r="E79" s="0" t="str">
         <f aca="false">MID(C79,1,D79-1)</f>
-        <v> walk-in </v>
+        <v>walk-in</v>
       </c>
       <c r="F79" s="1" t="str">
         <f aca="false">IFERROR(E79,C79)</f>
-        <v> walk-in </v>
+        <v>walk-in</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>157</v>
@@ -3555,7 +3552,7 @@
       </c>
       <c r="C80" s="0" t="str">
         <f aca="false">MID(A80,3,20)</f>
-        <v> war room (n)</v>
+        <v>war room (n)</v>
       </c>
       <c r="D80" s="0" t="n">
         <f aca="false">SEARCH("(n)",C80)</f>
@@ -3563,11 +3560,11 @@
       </c>
       <c r="E80" s="0" t="str">
         <f aca="false">MID(C80,1,D80-1)</f>
-        <v> war room </v>
+        <v>war room</v>
       </c>
       <c r="F80" s="1" t="str">
         <f aca="false">IFERROR(E80,C80)</f>
-        <v> war room </v>
+        <v>war room</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>159</v>
@@ -3586,7 +3583,7 @@
       </c>
       <c r="C81" s="0" t="str">
         <f aca="false">MID(A81,3,20)</f>
-        <v> art studio (n)</v>
+        <v>art studio (n)</v>
       </c>
       <c r="D81" s="0" t="n">
         <f aca="false">SEARCH("(n)",C81)</f>
@@ -3594,11 +3591,11 @@
       </c>
       <c r="E81" s="0" t="str">
         <f aca="false">MID(C81,1,D81-1)</f>
-        <v> art studio </v>
+        <v>art studio</v>
       </c>
       <c r="F81" s="1" t="str">
         <f aca="false">IFERROR(E81,C81)</f>
-        <v> art studio </v>
+        <v>art studio</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>162</v>
@@ -3617,7 +3614,7 @@
       </c>
       <c r="C82" s="0" t="str">
         <f aca="false">MID(A82,3,20)</f>
-        <v> backroom (n)</v>
+        <v>backroom (n)</v>
       </c>
       <c r="D82" s="0" t="n">
         <f aca="false">SEARCH("(n)",C82)</f>
@@ -3625,11 +3622,11 @@
       </c>
       <c r="E82" s="0" t="str">
         <f aca="false">MID(C82,1,D82-1)</f>
-        <v> backroom </v>
+        <v>backroom</v>
       </c>
       <c r="F82" s="1" t="str">
         <f aca="false">IFERROR(E82,C82)</f>
-        <v> backroom </v>
+        <v>backroom</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>164</v>
@@ -3648,7 +3645,7 @@
       </c>
       <c r="C83" s="0" t="str">
         <f aca="false">MID(A83,3,20)</f>
-        <v> a ballroom</v>
+        <v>a ballroom</v>
       </c>
       <c r="D83" s="0" t="e">
         <f aca="false">SEARCH("(n)",C83)</f>
@@ -3660,7 +3657,7 @@
       </c>
       <c r="F83" s="1" t="str">
         <f aca="false">IFERROR(E83,C83)</f>
-        <v> a ballroom</v>
+        <v>a ballroom</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>166</v>
@@ -3679,7 +3676,7 @@
       </c>
       <c r="C84" s="0" t="str">
         <f aca="false">MID(A84,3,20)</f>
-        <v> ballroom (n)</v>
+        <v>ballroom (n)</v>
       </c>
       <c r="D84" s="0" t="n">
         <f aca="false">SEARCH("(n)",C84)</f>
@@ -3687,11 +3684,11 @@
       </c>
       <c r="E84" s="0" t="str">
         <f aca="false">MID(C84,1,D84-1)</f>
-        <v> ballroom </v>
+        <v>ballroom</v>
       </c>
       <c r="F84" s="1" t="str">
         <f aca="false">IFERROR(E84,C84)</f>
-        <v> ballroom </v>
+        <v>ballroom</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>168</v>
@@ -3710,7 +3707,7 @@
       </c>
       <c r="C85" s="0" t="str">
         <f aca="false">MID(A85,3,20)</f>
-        <v> ballroom (n)</v>
+        <v>ballroom (n)</v>
       </c>
       <c r="D85" s="0" t="n">
         <f aca="false">SEARCH("(n)",C85)</f>
@@ -3718,11 +3715,11 @@
       </c>
       <c r="E85" s="0" t="str">
         <f aca="false">MID(C85,1,D85-1)</f>
-        <v> ballroom </v>
+        <v>ballroom</v>
       </c>
       <c r="F85" s="1" t="str">
         <f aca="false">IFERROR(E85,C85)</f>
-        <v> ballroom </v>
+        <v>ballroom</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>168</v>
@@ -3741,7 +3738,7 @@
       </c>
       <c r="C86" s="0" t="str">
         <f aca="false">MID(A86,3,20)</f>
-        <v> bank vault (n)</v>
+        <v>bank vault (n)</v>
       </c>
       <c r="D86" s="0" t="n">
         <f aca="false">SEARCH("(n)",C86)</f>
@@ -3749,11 +3746,11 @@
       </c>
       <c r="E86" s="0" t="str">
         <f aca="false">MID(C86,1,D86-1)</f>
-        <v> bank vault </v>
+        <v>bank vault</v>
       </c>
       <c r="F86" s="1" t="str">
         <f aca="false">IFERROR(E86,C86)</f>
-        <v> bank vault </v>
+        <v>bank vault</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>170</v>
@@ -3772,7 +3769,7 @@
       </c>
       <c r="C87" s="0" t="str">
         <f aca="false">MID(A87,3,20)</f>
-        <v> basement (n)</v>
+        <v>basement (n)</v>
       </c>
       <c r="D87" s="0" t="n">
         <f aca="false">SEARCH("(n)",C87)</f>
@@ -3780,11 +3777,11 @@
       </c>
       <c r="E87" s="0" t="str">
         <f aca="false">MID(C87,1,D87-1)</f>
-        <v> basement </v>
+        <v>basement</v>
       </c>
       <c r="F87" s="1" t="str">
         <f aca="false">IFERROR(E87,C87)</f>
-        <v> basement </v>
+        <v>basement</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>172</v>
@@ -3803,7 +3800,7 @@
       </c>
       <c r="C88" s="0" t="str">
         <f aca="false">MID(A88,3,20)</f>
-        <v> bathroom (n)</v>
+        <v>bathroom (n)</v>
       </c>
       <c r="D88" s="0" t="n">
         <f aca="false">SEARCH("(n)",C88)</f>
@@ -3811,11 +3808,11 @@
       </c>
       <c r="E88" s="0" t="str">
         <f aca="false">MID(C88,1,D88-1)</f>
-        <v> bathroom </v>
+        <v>bathroom</v>
       </c>
       <c r="F88" s="1" t="str">
         <f aca="false">IFERROR(E88,C88)</f>
-        <v> bathroom </v>
+        <v>bathroom</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>15</v>
@@ -3834,7 +3831,7 @@
       </c>
       <c r="C89" s="0" t="str">
         <f aca="false">MID(A89,3,20)</f>
-        <v> bathroom (n)</v>
+        <v>bathroom (n)</v>
       </c>
       <c r="D89" s="0" t="n">
         <f aca="false">SEARCH("(n)",C89)</f>
@@ -3842,11 +3839,11 @@
       </c>
       <c r="E89" s="0" t="str">
         <f aca="false">MID(C89,1,D89-1)</f>
-        <v> bathroom </v>
+        <v>bathroom</v>
       </c>
       <c r="F89" s="1" t="str">
         <f aca="false">IFERROR(E89,C89)</f>
-        <v> bathroom </v>
+        <v>bathroom</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>15</v>
@@ -3865,7 +3862,7 @@
       </c>
       <c r="C90" s="0" t="str">
         <f aca="false">MID(A90,3,20)</f>
-        <v> bedroom (n)</v>
+        <v>bedroom (n)</v>
       </c>
       <c r="D90" s="0" t="n">
         <f aca="false">SEARCH("(n)",C90)</f>
@@ -3873,11 +3870,11 @@
       </c>
       <c r="E90" s="0" t="str">
         <f aca="false">MID(C90,1,D90-1)</f>
-        <v> bedroom </v>
+        <v>bedroom</v>
       </c>
       <c r="F90" s="1" t="str">
         <f aca="false">IFERROR(E90,C90)</f>
-        <v> bedroom </v>
+        <v>bedroom</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>18</v>
@@ -3896,7 +3893,7 @@
       </c>
       <c r="C91" s="0" t="str">
         <f aca="false">MID(A91,3,20)</f>
-        <v> boiler room (n)</v>
+        <v>boiler room (n)</v>
       </c>
       <c r="D91" s="0" t="n">
         <f aca="false">SEARCH("(n)",C91)</f>
@@ -3904,11 +3901,11 @@
       </c>
       <c r="E91" s="0" t="str">
         <f aca="false">MID(C91,1,D91-1)</f>
-        <v> boiler room </v>
+        <v>boiler room</v>
       </c>
       <c r="F91" s="1" t="str">
         <f aca="false">IFERROR(E91,C91)</f>
-        <v> boiler room </v>
+        <v>boiler room</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>175</v>
@@ -3927,7 +3924,7 @@
       </c>
       <c r="C92" s="0" t="str">
         <f aca="false">MID(A92,3,20)</f>
-        <v> cath lab (n)</v>
+        <v>cath lab (n)</v>
       </c>
       <c r="D92" s="0" t="n">
         <f aca="false">SEARCH("(n)",C92)</f>
@@ -3935,11 +3932,11 @@
       </c>
       <c r="E92" s="0" t="str">
         <f aca="false">MID(C92,1,D92-1)</f>
-        <v> cath lab </v>
+        <v>cath lab</v>
       </c>
       <c r="F92" s="1" t="str">
         <f aca="false">IFERROR(E92,C92)</f>
-        <v> cath lab </v>
+        <v>cath lab</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>177</v>
@@ -3958,7 +3955,7 @@
       </c>
       <c r="C93" s="0" t="str">
         <f aca="false">MID(A93,3,20)</f>
-        <v> cell (n)</v>
+        <v>cell (n)</v>
       </c>
       <c r="D93" s="0" t="n">
         <f aca="false">SEARCH("(n)",C93)</f>
@@ -3966,11 +3963,11 @@
       </c>
       <c r="E93" s="0" t="str">
         <f aca="false">MID(C93,1,D93-1)</f>
-        <v> cell </v>
+        <v>cell</v>
       </c>
       <c r="F93" s="1" t="str">
         <f aca="false">IFERROR(E93,C93)</f>
-        <v> cell </v>
+        <v>cell</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>38</v>
@@ -3989,7 +3986,7 @@
       </c>
       <c r="C94" s="0" t="str">
         <f aca="false">MID(A94,3,20)</f>
-        <v> chamber (n)</v>
+        <v>chamber (n)</v>
       </c>
       <c r="D94" s="0" t="n">
         <f aca="false">SEARCH("(n)",C94)</f>
@@ -3997,11 +3994,11 @@
       </c>
       <c r="E94" s="0" t="str">
         <f aca="false">MID(C94,1,D94-1)</f>
-        <v> chamber </v>
+        <v>chamber</v>
       </c>
       <c r="F94" s="1" t="str">
         <f aca="false">IFERROR(E94,C94)</f>
-        <v> chamber </v>
+        <v>chamber</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>179</v>
@@ -4020,7 +4017,7 @@
       </c>
       <c r="C95" s="0" t="str">
         <f aca="false">MID(A95,3,20)</f>
-        <v> a classroom</v>
+        <v>a classroom</v>
       </c>
       <c r="D95" s="0" t="e">
         <f aca="false">SEARCH("(n)",C95)</f>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="F95" s="1" t="str">
         <f aca="false">IFERROR(E95,C95)</f>
-        <v> a classroom</v>
+        <v>a classroom</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>181</v>
@@ -4051,7 +4048,7 @@
       </c>
       <c r="C96" s="0" t="str">
         <f aca="false">MID(A96,3,20)</f>
-        <v> classroom (n)</v>
+        <v>classroom (n)</v>
       </c>
       <c r="D96" s="0" t="n">
         <f aca="false">SEARCH("(n)",C96)</f>
@@ -4059,11 +4056,11 @@
       </c>
       <c r="E96" s="0" t="str">
         <f aca="false">MID(C96,1,D96-1)</f>
-        <v> classroom </v>
+        <v>classroom</v>
       </c>
       <c r="F96" s="1" t="str">
         <f aca="false">IFERROR(E96,C96)</f>
-        <v> classroom </v>
+        <v>classroom</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>183</v>
@@ -4082,7 +4079,7 @@
       </c>
       <c r="C97" s="0" t="str">
         <f aca="false">MID(A97,3,20)</f>
-        <v> classroom (n)</v>
+        <v>classroom (n)</v>
       </c>
       <c r="D97" s="0" t="n">
         <f aca="false">SEARCH("(n)",C97)</f>
@@ -4090,11 +4087,11 @@
       </c>
       <c r="E97" s="0" t="str">
         <f aca="false">MID(C97,1,D97-1)</f>
-        <v> classroom </v>
+        <v>classroom</v>
       </c>
       <c r="F97" s="1" t="str">
         <f aca="false">IFERROR(E97,C97)</f>
-        <v> classroom </v>
+        <v>classroom</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>183</v>
@@ -4113,7 +4110,7 @@
       </c>
       <c r="C98" s="0" t="str">
         <f aca="false">MID(A98,3,20)</f>
-        <v> closet (n)</v>
+        <v>closet (n)</v>
       </c>
       <c r="D98" s="0" t="n">
         <f aca="false">SEARCH("(n)",C98)</f>
@@ -4121,11 +4118,11 @@
       </c>
       <c r="E98" s="0" t="str">
         <f aca="false">MID(C98,1,D98-1)</f>
-        <v> closet </v>
+        <v>closet</v>
       </c>
       <c r="F98" s="1" t="str">
         <f aca="false">IFERROR(E98,C98)</f>
-        <v> closet </v>
+        <v>closet</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>185</v>
@@ -4144,7 +4141,7 @@
       </c>
       <c r="C99" s="0" t="str">
         <f aca="false">MID(A99,3,20)</f>
-        <v> common room (n)</v>
+        <v>common room (n)</v>
       </c>
       <c r="D99" s="0" t="n">
         <f aca="false">SEARCH("(n)",C99)</f>
@@ -4152,11 +4149,11 @@
       </c>
       <c r="E99" s="0" t="str">
         <f aca="false">MID(C99,1,D99-1)</f>
-        <v> common room </v>
+        <v>common room</v>
       </c>
       <c r="F99" s="1" t="str">
         <f aca="false">IFERROR(E99,C99)</f>
-        <v> common room </v>
+        <v>common room</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>187</v>
@@ -4175,7 +4172,7 @@
       </c>
       <c r="C100" s="0" t="str">
         <f aca="false">MID(A100,3,20)</f>
-        <v> control room (n)</v>
+        <v>control room (n)</v>
       </c>
       <c r="D100" s="0" t="n">
         <f aca="false">SEARCH("(n)",C100)</f>
@@ -4183,11 +4180,11 @@
       </c>
       <c r="E100" s="0" t="str">
         <f aca="false">MID(C100,1,D100-1)</f>
-        <v> control room </v>
+        <v>control room</v>
       </c>
       <c r="F100" s="1" t="str">
         <f aca="false">IFERROR(E100,C100)</f>
-        <v> control room </v>
+        <v>control room</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>189</v>
@@ -4206,7 +4203,7 @@
       </c>
       <c r="C101" s="0" t="str">
         <f aca="false">MID(A101,3,20)</f>
-        <v> courtroom (n)</v>
+        <v>courtroom (n)</v>
       </c>
       <c r="D101" s="0" t="n">
         <f aca="false">SEARCH("(n)",C101)</f>
@@ -4214,11 +4211,11 @@
       </c>
       <c r="E101" s="0" t="str">
         <f aca="false">MID(C101,1,D101-1)</f>
-        <v> courtroom </v>
+        <v>courtroom</v>
       </c>
       <c r="F101" s="1" t="str">
         <f aca="false">IFERROR(E101,C101)</f>
-        <v> courtroom </v>
+        <v>courtroom</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>191</v>
@@ -4237,7 +4234,7 @@
       </c>
       <c r="C102" s="0" t="str">
         <f aca="false">MID(A102,3,20)</f>
-        <v> courtroom (n)</v>
+        <v>courtroom (n)</v>
       </c>
       <c r="D102" s="0" t="n">
         <f aca="false">SEARCH("(n)",C102)</f>
@@ -4245,11 +4242,11 @@
       </c>
       <c r="E102" s="0" t="str">
         <f aca="false">MID(C102,1,D102-1)</f>
-        <v> courtroom </v>
+        <v>courtroom</v>
       </c>
       <c r="F102" s="1" t="str">
         <f aca="false">IFERROR(E102,C102)</f>
-        <v> courtroom </v>
+        <v>courtroom</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>191</v>
@@ -4268,7 +4265,7 @@
       </c>
       <c r="C103" s="0" t="str">
         <f aca="false">MID(A103,3,20)</f>
-        <v> dance studio (n)</v>
+        <v>dance studio (n)</v>
       </c>
       <c r="D103" s="0" t="n">
         <f aca="false">SEARCH("(n)",C103)</f>
@@ -4276,11 +4273,11 @@
       </c>
       <c r="E103" s="0" t="str">
         <f aca="false">MID(C103,1,D103-1)</f>
-        <v> dance studio </v>
+        <v>dance studio</v>
       </c>
       <c r="F103" s="1" t="str">
         <f aca="false">IFERROR(E103,C103)</f>
-        <v> dance studio </v>
+        <v>dance studio</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>193</v>
@@ -4299,7 +4296,7 @@
       </c>
       <c r="C104" s="0" t="str">
         <f aca="false">MID(A104,3,20)</f>
-        <v> darkroom (n)</v>
+        <v>darkroom (n)</v>
       </c>
       <c r="D104" s="0" t="n">
         <f aca="false">SEARCH("(n)",C104)</f>
@@ -4307,11 +4304,11 @@
       </c>
       <c r="E104" s="0" t="str">
         <f aca="false">MID(C104,1,D104-1)</f>
-        <v> darkroom </v>
+        <v>darkroom</v>
       </c>
       <c r="F104" s="1" t="str">
         <f aca="false">IFERROR(E104,C104)</f>
-        <v> darkroom </v>
+        <v>darkroom</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>195</v>
@@ -4330,7 +4327,7 @@
       </c>
       <c r="C105" s="0" t="str">
         <f aca="false">MID(A105,3,20)</f>
-        <v> darkroom (n)</v>
+        <v>darkroom (n)</v>
       </c>
       <c r="D105" s="0" t="n">
         <f aca="false">SEARCH("(n)",C105)</f>
@@ -4338,11 +4335,11 @@
       </c>
       <c r="E105" s="0" t="str">
         <f aca="false">MID(C105,1,D105-1)</f>
-        <v> darkroom </v>
+        <v>darkroom</v>
       </c>
       <c r="F105" s="1" t="str">
         <f aca="false">IFERROR(E105,C105)</f>
-        <v> darkroom </v>
+        <v>darkroom</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>195</v>
@@ -4361,7 +4358,7 @@
       </c>
       <c r="C106" s="0" t="str">
         <f aca="false">MID(A106,3,20)</f>
-        <v> a den</v>
+        <v>a den</v>
       </c>
       <c r="D106" s="0" t="e">
         <f aca="false">SEARCH("(n)",C106)</f>
@@ -4373,7 +4370,7 @@
       </c>
       <c r="F106" s="1" t="str">
         <f aca="false">IFERROR(E106,C106)</f>
-        <v> a den</v>
+        <v>a den</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>197</v>
@@ -4392,7 +4389,7 @@
       </c>
       <c r="C107" s="0" t="str">
         <f aca="false">MID(A107,3,20)</f>
-        <v> dining room (n)</v>
+        <v>dining room (n)</v>
       </c>
       <c r="D107" s="0" t="n">
         <f aca="false">SEARCH("(n)",C107)</f>
@@ -4400,11 +4397,11 @@
       </c>
       <c r="E107" s="0" t="str">
         <f aca="false">MID(C107,1,D107-1)</f>
-        <v> dining room </v>
+        <v>dining room</v>
       </c>
       <c r="F107" s="1" t="str">
         <f aca="false">IFERROR(E107,C107)</f>
-        <v> dining room </v>
+        <v>dining room</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>199</v>
@@ -4423,7 +4420,7 @@
       </c>
       <c r="C108" s="0" t="str">
         <f aca="false">MID(A108,3,20)</f>
-        <v> dressing room (n)</v>
+        <v>dressing room (n)</v>
       </c>
       <c r="D108" s="0" t="n">
         <f aca="false">SEARCH("(n)",C108)</f>
@@ -4431,11 +4428,11 @@
       </c>
       <c r="E108" s="0" t="str">
         <f aca="false">MID(C108,1,D108-1)</f>
-        <v> dressing room </v>
+        <v>dressing room</v>
       </c>
       <c r="F108" s="1" t="str">
         <f aca="false">IFERROR(E108,C108)</f>
-        <v> dressing room </v>
+        <v>dressing room</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>201</v>
@@ -4454,7 +4451,7 @@
       </c>
       <c r="C109" s="0" t="str">
         <f aca="false">MID(A109,3,20)</f>
-        <v> elevator (n)</v>
+        <v>elevator (n)</v>
       </c>
       <c r="D109" s="0" t="n">
         <f aca="false">SEARCH("(n)",C109)</f>
@@ -4462,11 +4459,11 @@
       </c>
       <c r="E109" s="0" t="str">
         <f aca="false">MID(C109,1,D109-1)</f>
-        <v> elevator </v>
+        <v>elevator</v>
       </c>
       <c r="F109" s="1" t="str">
         <f aca="false">IFERROR(E109,C109)</f>
-        <v> elevator </v>
+        <v>elevator</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>203</v>
@@ -4485,7 +4482,7 @@
       </c>
       <c r="C110" s="0" t="str">
         <f aca="false">MID(A110,3,20)</f>
-        <v> examining room (n)</v>
+        <v>examining room (n)</v>
       </c>
       <c r="D110" s="0" t="n">
         <f aca="false">SEARCH("(n)",C110)</f>
@@ -4493,11 +4490,11 @@
       </c>
       <c r="E110" s="0" t="str">
         <f aca="false">MID(C110,1,D110-1)</f>
-        <v> examining room </v>
+        <v>examining room</v>
       </c>
       <c r="F110" s="1" t="str">
         <f aca="false">IFERROR(E110,C110)</f>
-        <v> examining room </v>
+        <v>examining room</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>205</v>
@@ -4516,7 +4513,7 @@
       </c>
       <c r="C111" s="0" t="str">
         <f aca="false">MID(A111,3,20)</f>
-        <v> a family room</v>
+        <v>a family room</v>
       </c>
       <c r="D111" s="0" t="e">
         <f aca="false">SEARCH("(n)",C111)</f>
@@ -4528,7 +4525,7 @@
       </c>
       <c r="F111" s="1" t="str">
         <f aca="false">IFERROR(E111,C111)</f>
-        <v> a family room</v>
+        <v>a family room</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>207</v>
@@ -4547,7 +4544,7 @@
       </c>
       <c r="C112" s="0" t="str">
         <f aca="false">MID(A112,3,20)</f>
-        <v> family room (n)</v>
+        <v>family room (n)</v>
       </c>
       <c r="D112" s="0" t="n">
         <f aca="false">SEARCH("(n)",C112)</f>
@@ -4555,11 +4552,11 @@
       </c>
       <c r="E112" s="0" t="str">
         <f aca="false">MID(C112,1,D112-1)</f>
-        <v> family room </v>
+        <v>family room</v>
       </c>
       <c r="F112" s="1" t="str">
         <f aca="false">IFERROR(E112,C112)</f>
-        <v> family room </v>
+        <v>family room</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>209</v>
@@ -4578,7 +4575,7 @@
       </c>
       <c r="C113" s="0" t="str">
         <f aca="false">MID(A113,3,20)</f>
-        <v> Something you find </v>
+        <v>Something you find</v>
       </c>
       <c r="D113" s="0" t="e">
         <f aca="false">SEARCH("(n)",C113)</f>
@@ -4590,7 +4587,7 @@
       </c>
       <c r="F113" s="1" t="str">
         <f aca="false">IFERROR(E113,C113)</f>
-        <v> Something you find </v>
+        <v>Something you find</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>211</v>
@@ -4609,7 +4606,7 @@
       </c>
       <c r="C114" s="0" t="str">
         <f aca="false">MID(A114,3,20)</f>
-        <v> a foyer</v>
+        <v>a foyer</v>
       </c>
       <c r="D114" s="0" t="e">
         <f aca="false">SEARCH("(n)",C114)</f>
@@ -4621,7 +4618,7 @@
       </c>
       <c r="F114" s="1" t="str">
         <f aca="false">IFERROR(E114,C114)</f>
-        <v> a foyer</v>
+        <v>a foyer</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>213</v>
@@ -4640,7 +4637,7 @@
       </c>
       <c r="C115" s="0" t="str">
         <f aca="false">MID(A115,3,20)</f>
-        <v> a front room</v>
+        <v>a front room</v>
       </c>
       <c r="D115" s="0" t="e">
         <f aca="false">SEARCH("(n)",C115)</f>
@@ -4652,7 +4649,7 @@
       </c>
       <c r="F115" s="1" t="str">
         <f aca="false">IFERROR(E115,C115)</f>
-        <v> a front room</v>
+        <v>a front room</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>215</v>
@@ -4671,7 +4668,7 @@
       </c>
       <c r="C116" s="0" t="str">
         <f aca="false">MID(A116,3,20)</f>
-        <v> garage (n)</v>
+        <v>garage (n)</v>
       </c>
       <c r="D116" s="0" t="n">
         <f aca="false">SEARCH("(n)",C116)</f>
@@ -4679,11 +4676,11 @@
       </c>
       <c r="E116" s="0" t="str">
         <f aca="false">MID(C116,1,D116-1)</f>
-        <v> garage </v>
+        <v>garage</v>
       </c>
       <c r="F116" s="1" t="str">
         <f aca="false">IFERROR(E116,C116)</f>
-        <v> garage </v>
+        <v>garage</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>217</v>
@@ -4702,7 +4699,7 @@
       </c>
       <c r="C117" s="0" t="str">
         <f aca="false">MID(A117,3,20)</f>
-        <v> gymnasium (n)</v>
+        <v>gymnasium (n)</v>
       </c>
       <c r="D117" s="0" t="n">
         <f aca="false">SEARCH("(n)",C117)</f>
@@ -4710,11 +4707,11 @@
       </c>
       <c r="E117" s="0" t="str">
         <f aca="false">MID(C117,1,D117-1)</f>
-        <v> gymnasium </v>
+        <v>gymnasium</v>
       </c>
       <c r="F117" s="1" t="str">
         <f aca="false">IFERROR(E117,C117)</f>
-        <v> gymnasium </v>
+        <v>gymnasium</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>219</v>
@@ -4733,7 +4730,7 @@
       </c>
       <c r="C118" s="0" t="str">
         <f aca="false">MID(A118,3,20)</f>
-        <v> hall (n)</v>
+        <v>hall (n)</v>
       </c>
       <c r="D118" s="0" t="n">
         <f aca="false">SEARCH("(n)",C118)</f>
@@ -4741,11 +4738,11 @@
       </c>
       <c r="E118" s="0" t="str">
         <f aca="false">MID(C118,1,D118-1)</f>
-        <v> hall </v>
+        <v>hall</v>
       </c>
       <c r="F118" s="1" t="str">
         <f aca="false">IFERROR(E118,C118)</f>
-        <v> hall </v>
+        <v>hall</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>221</v>
@@ -4764,7 +4761,7 @@
       </c>
       <c r="C119" s="0" t="str">
         <f aca="false">MID(A119,3,20)</f>
-        <v> hallway (n)</v>
+        <v>hallway (n)</v>
       </c>
       <c r="D119" s="0" t="n">
         <f aca="false">SEARCH("(n)",C119)</f>
@@ -4772,11 +4769,11 @@
       </c>
       <c r="E119" s="0" t="str">
         <f aca="false">MID(C119,1,D119-1)</f>
-        <v> hallway </v>
+        <v>hallway</v>
       </c>
       <c r="F119" s="1" t="str">
         <f aca="false">IFERROR(E119,C119)</f>
-        <v> hallway </v>
+        <v>hallway</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>223</v>
@@ -4795,7 +4792,7 @@
       </c>
       <c r="C120" s="0" t="str">
         <f aca="false">MID(A120,3,20)</f>
-        <v> hospital room (n)</v>
+        <v>hospital room (n)</v>
       </c>
       <c r="D120" s="0" t="n">
         <f aca="false">SEARCH("(n)",C120)</f>
@@ -4803,11 +4800,11 @@
       </c>
       <c r="E120" s="0" t="str">
         <f aca="false">MID(C120,1,D120-1)</f>
-        <v> hospital room </v>
+        <v>hospital room</v>
       </c>
       <c r="F120" s="1" t="str">
         <f aca="false">IFERROR(E120,C120)</f>
-        <v> hospital room </v>
+        <v>hospital room</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>225</v>
@@ -4826,7 +4823,7 @@
       </c>
       <c r="C121" s="0" t="str">
         <f aca="false">MID(A121,3,20)</f>
-        <v> jail cell (n)</v>
+        <v>jail cell (n)</v>
       </c>
       <c r="D121" s="0" t="n">
         <f aca="false">SEARCH("(n)",C121)</f>
@@ -4834,11 +4831,11 @@
       </c>
       <c r="E121" s="0" t="str">
         <f aca="false">MID(C121,1,D121-1)</f>
-        <v> jail cell </v>
+        <v>jail cell</v>
       </c>
       <c r="F121" s="1" t="str">
         <f aca="false">IFERROR(E121,C121)</f>
-        <v> jail cell </v>
+        <v>jail cell</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>227</v>
@@ -4857,7 +4854,7 @@
       </c>
       <c r="C122" s="0" t="str">
         <f aca="false">MID(A122,3,20)</f>
-        <v> kitchen (n)</v>
+        <v>kitchen (n)</v>
       </c>
       <c r="D122" s="0" t="n">
         <f aca="false">SEARCH("(n)",C122)</f>
@@ -4865,11 +4862,11 @@
       </c>
       <c r="E122" s="0" t="str">
         <f aca="false">MID(C122,1,D122-1)</f>
-        <v> kitchen </v>
+        <v>kitchen</v>
       </c>
       <c r="F122" s="1" t="str">
         <f aca="false">IFERROR(E122,C122)</f>
-        <v> kitchen </v>
+        <v>kitchen</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>12</v>
@@ -4888,7 +4885,7 @@
       </c>
       <c r="C123" s="0" t="str">
         <f aca="false">MID(A123,3,20)</f>
-        <v> laundry room (n)</v>
+        <v>laundry room (n)</v>
       </c>
       <c r="D123" s="0" t="n">
         <f aca="false">SEARCH("(n)",C123)</f>
@@ -4896,11 +4893,11 @@
       </c>
       <c r="E123" s="0" t="str">
         <f aca="false">MID(C123,1,D123-1)</f>
-        <v> laundry room </v>
+        <v>laundry room</v>
       </c>
       <c r="F123" s="1" t="str">
         <f aca="false">IFERROR(E123,C123)</f>
-        <v> laundry room </v>
+        <v>laundry room</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>230</v>
@@ -4919,7 +4916,7 @@
       </c>
       <c r="C124" s="0" t="str">
         <f aca="false">MID(A124,3,20)</f>
-        <v> library room (n)</v>
+        <v>library room (n)</v>
       </c>
       <c r="D124" s="0" t="n">
         <f aca="false">SEARCH("(n)",C124)</f>
@@ -4927,11 +4924,11 @@
       </c>
       <c r="E124" s="0" t="str">
         <f aca="false">MID(C124,1,D124-1)</f>
-        <v> library room </v>
+        <v>library room</v>
       </c>
       <c r="F124" s="1" t="str">
         <f aca="false">IFERROR(E124,C124)</f>
-        <v> library room </v>
+        <v>library room</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>232</v>
@@ -4950,7 +4947,7 @@
       </c>
       <c r="C125" s="0" t="str">
         <f aca="false">MID(A125,3,20)</f>
-        <v> living room (n)</v>
+        <v>living room (n)</v>
       </c>
       <c r="D125" s="0" t="n">
         <f aca="false">SEARCH("(n)",C125)</f>
@@ -4958,11 +4955,11 @@
       </c>
       <c r="E125" s="0" t="str">
         <f aca="false">MID(C125,1,D125-1)</f>
-        <v> living room </v>
+        <v>living room</v>
       </c>
       <c r="F125" s="1" t="str">
         <f aca="false">IFERROR(E125,C125)</f>
-        <v> living room </v>
+        <v>living room</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>234</v>
@@ -4981,7 +4978,7 @@
       </c>
       <c r="C126" s="0" t="str">
         <f aca="false">MID(A126,3,20)</f>
-        <v> lobby (n)</v>
+        <v>lobby (n)</v>
       </c>
       <c r="D126" s="0" t="n">
         <f aca="false">SEARCH("(n)",C126)</f>
@@ -4989,11 +4986,11 @@
       </c>
       <c r="E126" s="0" t="str">
         <f aca="false">MID(C126,1,D126-1)</f>
-        <v> lobby </v>
+        <v>lobby</v>
       </c>
       <c r="F126" s="1" t="str">
         <f aca="false">IFERROR(E126,C126)</f>
-        <v> lobby </v>
+        <v>lobby</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>236</v>
@@ -5012,7 +5009,7 @@
       </c>
       <c r="C127" s="0" t="str">
         <f aca="false">MID(A127,3,20)</f>
-        <v> locker room (n)</v>
+        <v>locker room (n)</v>
       </c>
       <c r="D127" s="0" t="n">
         <f aca="false">SEARCH("(n)",C127)</f>
@@ -5020,11 +5017,11 @@
       </c>
       <c r="E127" s="0" t="str">
         <f aca="false">MID(C127,1,D127-1)</f>
-        <v> locker room </v>
+        <v>locker room</v>
       </c>
       <c r="F127" s="1" t="str">
         <f aca="false">IFERROR(E127,C127)</f>
-        <v> locker room </v>
+        <v>locker room</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>238</v>
@@ -5043,7 +5040,7 @@
       </c>
       <c r="C128" s="0" t="str">
         <f aca="false">MID(A128,3,20)</f>
-        <v> mailroom (n)</v>
+        <v>mailroom (n)</v>
       </c>
       <c r="D128" s="0" t="n">
         <f aca="false">SEARCH("(n)",C128)</f>
@@ -5051,11 +5048,11 @@
       </c>
       <c r="E128" s="0" t="str">
         <f aca="false">MID(C128,1,D128-1)</f>
-        <v> mailroom </v>
+        <v>mailroom</v>
       </c>
       <c r="F128" s="1" t="str">
         <f aca="false">IFERROR(E128,C128)</f>
-        <v> mailroom </v>
+        <v>mailroom</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>240</v>
@@ -5074,7 +5071,7 @@
       </c>
       <c r="C129" s="0" t="str">
         <f aca="false">MID(A129,3,20)</f>
-        <v> newsroom (n)</v>
+        <v>newsroom (n)</v>
       </c>
       <c r="D129" s="0" t="n">
         <f aca="false">SEARCH("(n)",C129)</f>
@@ -5082,11 +5079,11 @@
       </c>
       <c r="E129" s="0" t="str">
         <f aca="false">MID(C129,1,D129-1)</f>
-        <v> newsroom </v>
+        <v>newsroom</v>
       </c>
       <c r="F129" s="1" t="str">
         <f aca="false">IFERROR(E129,C129)</f>
-        <v> newsroom </v>
+        <v>newsroom</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>242</v>
@@ -5105,7 +5102,7 @@
       </c>
       <c r="C130" s="0" t="str">
         <f aca="false">MID(A130,3,20)</f>
-        <v> nursery (n)</v>
+        <v>nursery (n)</v>
       </c>
       <c r="D130" s="0" t="n">
         <f aca="false">SEARCH("(n)",C130)</f>
@@ -5113,11 +5110,11 @@
       </c>
       <c r="E130" s="0" t="str">
         <f aca="false">MID(C130,1,D130-1)</f>
-        <v> nursery </v>
+        <v>nursery</v>
       </c>
       <c r="F130" s="1" t="str">
         <f aca="false">IFERROR(E130,C130)</f>
-        <v> nursery </v>
+        <v>nursery</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>29</v>
@@ -5136,7 +5133,7 @@
       </c>
       <c r="C131" s="0" t="str">
         <f aca="false">MID(A131,3,20)</f>
-        <v> operating room (n)</v>
+        <v>operating room (n)</v>
       </c>
       <c r="D131" s="0" t="n">
         <f aca="false">SEARCH("(n)",C131)</f>
@@ -5144,11 +5141,11 @@
       </c>
       <c r="E131" s="0" t="str">
         <f aca="false">MID(C131,1,D131-1)</f>
-        <v> operating room </v>
+        <v>operating room</v>
       </c>
       <c r="F131" s="1" t="str">
         <f aca="false">IFERROR(E131,C131)</f>
-        <v> operating room </v>
+        <v>operating room</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>245</v>
@@ -5167,7 +5164,7 @@
       </c>
       <c r="C132" s="0" t="str">
         <f aca="false">MID(A132,3,20)</f>
-        <v> patient room (n)</v>
+        <v>patient room (n)</v>
       </c>
       <c r="D132" s="0" t="n">
         <f aca="false">SEARCH("(n)",C132)</f>
@@ -5175,11 +5172,11 @@
       </c>
       <c r="E132" s="0" t="str">
         <f aca="false">MID(C132,1,D132-1)</f>
-        <v> patient room </v>
+        <v>patient room</v>
       </c>
       <c r="F132" s="1" t="str">
         <f aca="false">IFERROR(E132,C132)</f>
-        <v> patient room </v>
+        <v>patient room</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>247</v>
@@ -5198,7 +5195,7 @@
       </c>
       <c r="C133" s="0" t="str">
         <f aca="false">MID(A133,3,20)</f>
-        <v> records room (n)</v>
+        <v>records room (n)</v>
       </c>
       <c r="D133" s="0" t="n">
         <f aca="false">SEARCH("(n)",C133)</f>
@@ -5206,11 +5203,11 @@
       </c>
       <c r="E133" s="0" t="str">
         <f aca="false">MID(C133,1,D133-1)</f>
-        <v> records room </v>
+        <v>records room</v>
       </c>
       <c r="F133" s="1" t="str">
         <f aca="false">IFERROR(E133,C133)</f>
-        <v> records room </v>
+        <v>records room</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>249</v>
@@ -5229,7 +5226,7 @@
       </c>
       <c r="C134" s="0" t="str">
         <f aca="false">MID(A134,3,20)</f>
-        <v> restroom (n)</v>
+        <v>restroom (n)</v>
       </c>
       <c r="D134" s="0" t="n">
         <f aca="false">SEARCH("(n)",C134)</f>
@@ -5237,11 +5234,11 @@
       </c>
       <c r="E134" s="0" t="str">
         <f aca="false">MID(C134,1,D134-1)</f>
-        <v> restroom </v>
+        <v>restroom</v>
       </c>
       <c r="F134" s="1" t="str">
         <f aca="false">IFERROR(E134,C134)</f>
-        <v> restroom </v>
+        <v>restroom</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>251</v>
@@ -5260,7 +5257,7 @@
       </c>
       <c r="C135" s="0" t="str">
         <f aca="false">MID(A135,3,20)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="D135" s="0" t="e">
         <f aca="false">SEARCH("(n)",C135)</f>
@@ -5272,7 +5269,7 @@
       </c>
       <c r="F135" s="1" t="str">
         <f aca="false">IFERROR(E135,C135)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>7</v>
@@ -5291,7 +5288,7 @@
       </c>
       <c r="C136" s="0" t="str">
         <f aca="false">MID(A136,3,20)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="D136" s="0" t="e">
         <f aca="false">SEARCH("(n)",C136)</f>
@@ -5303,7 +5300,7 @@
       </c>
       <c r="F136" s="1" t="str">
         <f aca="false">IFERROR(E136,C136)</f>
-        <v> A room</v>
+        <v>A room</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>7</v>
@@ -5322,7 +5319,7 @@
       </c>
       <c r="C137" s="0" t="str">
         <f aca="false">MID(A137,3,20)</f>
-        <v> a room</v>
+        <v>a room</v>
       </c>
       <c r="D137" s="0" t="e">
         <f aca="false">SEARCH("(n)",C137)</f>
@@ -5334,7 +5331,7 @@
       </c>
       <c r="F137" s="1" t="str">
         <f aca="false">IFERROR(E137,C137)</f>
-        <v> a room</v>
+        <v>a room</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>109</v>
@@ -5353,7 +5350,7 @@
       </c>
       <c r="C138" s="0" t="str">
         <f aca="false">MID(A138,3,20)</f>
-        <v> room (n)</v>
+        <v>room (n)</v>
       </c>
       <c r="D138" s="0" t="n">
         <f aca="false">SEARCH("(n)",C138)</f>
@@ -5361,11 +5358,11 @@
       </c>
       <c r="E138" s="0" t="str">
         <f aca="false">MID(C138,1,D138-1)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="F138" s="1" t="str">
         <f aca="false">IFERROR(E138,C138)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>111</v>
@@ -5384,7 +5381,7 @@
       </c>
       <c r="C139" s="0" t="str">
         <f aca="false">MID(A139,3,20)</f>
-        <v> room (n)</v>
+        <v>room (n)</v>
       </c>
       <c r="D139" s="0" t="n">
         <f aca="false">SEARCH("(n)",C139)</f>
@@ -5392,11 +5389,11 @@
       </c>
       <c r="E139" s="0" t="str">
         <f aca="false">MID(C139,1,D139-1)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="F139" s="1" t="str">
         <f aca="false">IFERROR(E139,C139)</f>
-        <v> room </v>
+        <v>room</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>111</v>
@@ -5415,7 +5412,7 @@
       </c>
       <c r="C140" s="0" t="str">
         <f aca="false">MID(A140,3,20)</f>
-        <v> sauna (n)</v>
+        <v>sauna (n)</v>
       </c>
       <c r="D140" s="0" t="n">
         <f aca="false">SEARCH("(n)",C140)</f>
@@ -5423,11 +5420,11 @@
       </c>
       <c r="E140" s="0" t="str">
         <f aca="false">MID(C140,1,D140-1)</f>
-        <v> sauna </v>
+        <v>sauna</v>
       </c>
       <c r="F140" s="1" t="str">
         <f aca="false">IFERROR(E140,C140)</f>
-        <v> sauna </v>
+        <v>sauna</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>253</v>
@@ -5446,7 +5443,7 @@
       </c>
       <c r="C141" s="0" t="str">
         <f aca="false">MID(A141,3,20)</f>
-        <v> server room (n)</v>
+        <v>server room (n)</v>
       </c>
       <c r="D141" s="0" t="n">
         <f aca="false">SEARCH("(n)",C141)</f>
@@ -5454,11 +5451,11 @@
       </c>
       <c r="E141" s="0" t="str">
         <f aca="false">MID(C141,1,D141-1)</f>
-        <v> server room </v>
+        <v>server room</v>
       </c>
       <c r="F141" s="1" t="str">
         <f aca="false">IFERROR(E141,C141)</f>
-        <v> server room </v>
+        <v>server room</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>255</v>
@@ -5477,7 +5474,7 @@
       </c>
       <c r="C142" s="0" t="str">
         <f aca="false">MID(A142,3,20)</f>
-        <v> showroom (n)</v>
+        <v>showroom (n)</v>
       </c>
       <c r="D142" s="0" t="n">
         <f aca="false">SEARCH("(n)",C142)</f>
@@ -5485,11 +5482,11 @@
       </c>
       <c r="E142" s="0" t="str">
         <f aca="false">MID(C142,1,D142-1)</f>
-        <v> showroom </v>
+        <v>showroom</v>
       </c>
       <c r="F142" s="1" t="str">
         <f aca="false">IFERROR(E142,C142)</f>
-        <v> showroom </v>
+        <v>showroom</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>257</v>
@@ -5508,7 +5505,7 @@
       </c>
       <c r="C143" s="0" t="str">
         <f aca="false">MID(A143,3,20)</f>
-        <v> showroom (n)</v>
+        <v>showroom (n)</v>
       </c>
       <c r="D143" s="0" t="n">
         <f aca="false">SEARCH("(n)",C143)</f>
@@ -5516,11 +5513,11 @@
       </c>
       <c r="E143" s="0" t="str">
         <f aca="false">MID(C143,1,D143-1)</f>
-        <v> showroom </v>
+        <v>showroom</v>
       </c>
       <c r="F143" s="1" t="str">
         <f aca="false">IFERROR(E143,C143)</f>
-        <v> showroom </v>
+        <v>showroom</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>257</v>
@@ -5539,7 +5536,7 @@
       </c>
       <c r="C144" s="0" t="str">
         <f aca="false">MID(A144,3,20)</f>
-        <v> single room office </v>
+        <v>single room office</v>
       </c>
       <c r="D144" s="0" t="e">
         <f aca="false">SEARCH("(n)",C144)</f>
@@ -5551,7 +5548,7 @@
       </c>
       <c r="F144" s="1" t="str">
         <f aca="false">IFERROR(E144,C144)</f>
-        <v> single room office </v>
+        <v>single room office</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>259</v>
@@ -5570,7 +5567,7 @@
       </c>
       <c r="C145" s="0" t="str">
         <f aca="false">MID(A145,3,20)</f>
-        <v> sitting room (n)</v>
+        <v>sitting room (n)</v>
       </c>
       <c r="D145" s="0" t="n">
         <f aca="false">SEARCH("(n)",C145)</f>
@@ -5578,11 +5575,11 @@
       </c>
       <c r="E145" s="0" t="str">
         <f aca="false">MID(C145,1,D145-1)</f>
-        <v> sitting room </v>
+        <v>sitting room</v>
       </c>
       <c r="F145" s="1" t="str">
         <f aca="false">IFERROR(E145,C145)</f>
-        <v> sitting room </v>
+        <v>sitting room</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>261</v>
@@ -5601,7 +5598,7 @@
       </c>
       <c r="C146" s="0" t="str">
         <f aca="false">MID(A146,3,20)</f>
-        <v> staffroom (n)</v>
+        <v>staffroom (n)</v>
       </c>
       <c r="D146" s="0" t="n">
         <f aca="false">SEARCH("(n)",C146)</f>
@@ -5609,11 +5606,11 @@
       </c>
       <c r="E146" s="0" t="str">
         <f aca="false">MID(C146,1,D146-1)</f>
-        <v> staffroom </v>
+        <v>staffroom</v>
       </c>
       <c r="F146" s="1" t="str">
         <f aca="false">IFERROR(E146,C146)</f>
-        <v> staffroom </v>
+        <v>staffroom</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>263</v>
@@ -5632,7 +5629,7 @@
       </c>
       <c r="C147" s="0" t="str">
         <f aca="false">MID(A147,3,20)</f>
-        <v> storage room (n)</v>
+        <v>storage room (n)</v>
       </c>
       <c r="D147" s="0" t="n">
         <f aca="false">SEARCH("(n)",C147)</f>
@@ -5640,11 +5637,11 @@
       </c>
       <c r="E147" s="0" t="str">
         <f aca="false">MID(C147,1,D147-1)</f>
-        <v> storage room </v>
+        <v>storage room</v>
       </c>
       <c r="F147" s="1" t="str">
         <f aca="false">IFERROR(E147,C147)</f>
-        <v> storage room </v>
+        <v>storage room</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>265</v>
@@ -5663,7 +5660,7 @@
       </c>
       <c r="C148" s="0" t="str">
         <f aca="false">MID(A148,3,20)</f>
-        <v> storeroom (n)</v>
+        <v>storeroom (n)</v>
       </c>
       <c r="D148" s="0" t="n">
         <f aca="false">SEARCH("(n)",C148)</f>
@@ -5671,11 +5668,11 @@
       </c>
       <c r="E148" s="0" t="str">
         <f aca="false">MID(C148,1,D148-1)</f>
-        <v> storeroom </v>
+        <v>storeroom</v>
       </c>
       <c r="F148" s="1" t="str">
         <f aca="false">IFERROR(E148,C148)</f>
-        <v> storeroom </v>
+        <v>storeroom</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>141</v>
@@ -5694,7 +5691,7 @@
       </c>
       <c r="C149" s="0" t="str">
         <f aca="false">MID(A149,3,20)</f>
-        <v> study (n)</v>
+        <v>study (n)</v>
       </c>
       <c r="D149" s="0" t="n">
         <f aca="false">SEARCH("(n)",C149)</f>
@@ -5702,11 +5699,11 @@
       </c>
       <c r="E149" s="0" t="str">
         <f aca="false">MID(C149,1,D149-1)</f>
-        <v> study </v>
+        <v>study</v>
       </c>
       <c r="F149" s="1" t="str">
         <f aca="false">IFERROR(E149,C149)</f>
-        <v> study </v>
+        <v>study</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>267</v>
@@ -5725,7 +5722,7 @@
       </c>
       <c r="C150" s="0" t="str">
         <f aca="false">MID(A150,3,20)</f>
-        <v> sunroom (n)</v>
+        <v>sunroom (n)</v>
       </c>
       <c r="D150" s="0" t="n">
         <f aca="false">SEARCH("(n)",C150)</f>
@@ -5733,11 +5730,11 @@
       </c>
       <c r="E150" s="0" t="str">
         <f aca="false">MID(C150,1,D150-1)</f>
-        <v> sunroom </v>
+        <v>sunroom</v>
       </c>
       <c r="F150" s="1" t="str">
         <f aca="false">IFERROR(E150,C150)</f>
-        <v> sunroom </v>
+        <v>sunroom</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>269</v>
@@ -5756,7 +5753,7 @@
       </c>
       <c r="C151" s="0" t="str">
         <f aca="false">MID(A151,3,20)</f>
-        <v> utility room (n)</v>
+        <v>utility room (n)</v>
       </c>
       <c r="D151" s="0" t="n">
         <f aca="false">SEARCH("(n)",C151)</f>
@@ -5764,11 +5761,11 @@
       </c>
       <c r="E151" s="0" t="str">
         <f aca="false">MID(C151,1,D151-1)</f>
-        <v> utility room </v>
+        <v>utility room</v>
       </c>
       <c r="F151" s="1" t="str">
         <f aca="false">IFERROR(E151,C151)</f>
-        <v> utility room </v>
+        <v>utility room</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>271</v>
@@ -5787,7 +5784,7 @@
       </c>
       <c r="C152" s="0" t="str">
         <f aca="false">MID(A152,3,20)</f>
-        <v> waiting room (n)</v>
+        <v>waiting room (n)</v>
       </c>
       <c r="D152" s="0" t="n">
         <f aca="false">SEARCH("(n)",C152)</f>
@@ -5795,11 +5792,11 @@
       </c>
       <c r="E152" s="0" t="str">
         <f aca="false">MID(C152,1,D152-1)</f>
-        <v> waiting room </v>
+        <v>waiting room</v>
       </c>
       <c r="F152" s="1" t="str">
         <f aca="false">IFERROR(E152,C152)</f>
-        <v> waiting room </v>
+        <v>waiting room</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>273</v>
@@ -5818,7 +5815,7 @@
       </c>
       <c r="C153" s="0" t="str">
         <f aca="false">MID(A153,3,20)</f>
-        <v> washroom (n)</v>
+        <v>washroom (n)</v>
       </c>
       <c r="D153" s="0" t="n">
         <f aca="false">SEARCH("(n)",C153)</f>
@@ -5826,11 +5823,11 @@
       </c>
       <c r="E153" s="0" t="str">
         <f aca="false">MID(C153,1,D153-1)</f>
-        <v> washroom </v>
+        <v>washroom</v>
       </c>
       <c r="F153" s="1" t="str">
         <f aca="false">IFERROR(E153,C153)</f>
-        <v> washroom </v>
+        <v>washroom</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>275</v>
@@ -5849,7 +5846,7 @@
       </c>
       <c r="C154" s="0" t="str">
         <f aca="false">MID(A154,3,20)</f>
-        <v> workroom (n)</v>
+        <v>workroom (n)</v>
       </c>
       <c r="D154" s="0" t="n">
         <f aca="false">SEARCH("(n)",C154)</f>
@@ -5857,11 +5854,11 @@
       </c>
       <c r="E154" s="0" t="str">
         <f aca="false">MID(C154,1,D154-1)</f>
-        <v> workroom </v>
+        <v>workroom</v>
       </c>
       <c r="F154" s="1" t="str">
         <f aca="false">IFERROR(E154,C154)</f>
-        <v> workroom </v>
+        <v>workroom</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>277</v>
@@ -5880,7 +5877,7 @@
       </c>
       <c r="C155" s="0" t="str">
         <f aca="false">MID(A155,3,20)</f>
-        <v> workroom (n)</v>
+        <v>workroom (n)</v>
       </c>
       <c r="D155" s="0" t="n">
         <f aca="false">SEARCH("(n)",C155)</f>
@@ -5888,11 +5885,11 @@
       </c>
       <c r="E155" s="0" t="str">
         <f aca="false">MID(C155,1,D155-1)</f>
-        <v> workroom </v>
+        <v>workroom</v>
       </c>
       <c r="F155" s="1" t="str">
         <f aca="false">IFERROR(E155,C155)</f>
-        <v> workroom </v>
+        <v>workroom</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>277</v>
@@ -5911,7 +5908,7 @@
       </c>
       <c r="C156" s="0" t="str">
         <f aca="false">MID(A156,3,20)</f>
-        <v> workshop room (n)</v>
+        <v>workshop room (n)</v>
       </c>
       <c r="D156" s="0" t="n">
         <f aca="false">SEARCH("(n)",C156)</f>
@@ -5919,11 +5916,11 @@
       </c>
       <c r="E156" s="0" t="str">
         <f aca="false">MID(C156,1,D156-1)</f>
-        <v> workshop room </v>
+        <v>workshop room</v>
       </c>
       <c r="F156" s="1" t="str">
         <f aca="false">IFERROR(E156,C156)</f>
-        <v> workshop room </v>
+        <v>workshop room</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>279</v>
